--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>28.57142857142854</v>
+      </c>
       <c r="L12" t="n">
         <v>27.73</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.000000000000011</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>37.49999999999989</v>
+      </c>
       <c r="L13" t="n">
         <v>27.79</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.400000000000009</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>5.263157894736901</v>
+      </c>
       <c r="L14" t="n">
         <v>27.81000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>15.78947368421055</v>
+      </c>
       <c r="L15" t="n">
         <v>27.83000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-6.666666666666761</v>
+      </c>
       <c r="L16" t="n">
         <v>27.86000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333353</v>
+      </c>
       <c r="L17" t="n">
         <v>27.85</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.600000000000009</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-16.66666666666662</v>
+      </c>
       <c r="L18" t="n">
         <v>27.82</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.800000000000008</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-7.692307692307819</v>
+      </c>
       <c r="L19" t="n">
         <v>27.82</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.100000000000009</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-7.692307692307819</v>
+      </c>
       <c r="L20" t="n">
         <v>27.78</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.200000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L21" t="n">
         <v>27.76</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.400000000000009</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-42.857142857143</v>
+      </c>
       <c r="L22" t="n">
         <v>27.72</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.800000000000011</v>
       </c>
       <c r="K23" t="n">
-        <v>11.76470588235297</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L23" t="n">
         <v>27.7</v>
@@ -1466,7 +1488,7 @@
         <v>3.800000000000011</v>
       </c>
       <c r="K24" t="n">
-        <v>11.76470588235297</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L24" t="n">
         <v>27.72</v>
@@ -1515,7 +1537,7 @@
         <v>3.900000000000013</v>
       </c>
       <c r="K25" t="n">
-        <v>5.882352941176434</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>27.72</v>
@@ -1564,7 +1586,7 @@
         <v>3.900000000000013</v>
       </c>
       <c r="K26" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>27.72</v>
@@ -1613,7 +1635,7 @@
         <v>4.100000000000012</v>
       </c>
       <c r="K27" t="n">
-        <v>3.22580645161283</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L27" t="n">
         <v>27.74</v>
@@ -1662,7 +1684,7 @@
         <v>4.100000000000012</v>
       </c>
       <c r="K28" t="n">
-        <v>-7.142857142857234</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L28" t="n">
         <v>27.74999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>4.500000000000011</v>
       </c>
       <c r="K29" t="n">
-        <v>-16.12903225806451</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L29" t="n">
         <v>27.7</v>
@@ -1760,7 +1782,7 @@
         <v>4.600000000000012</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.12903225806451</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>27.69</v>
@@ -1809,7 +1831,7 @@
         <v>4.700000000000014</v>
       </c>
       <c r="K31" t="n">
-        <v>-10.34482758620691</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L31" t="n">
         <v>27.68</v>
@@ -1860,7 +1882,7 @@
         <v>4.900000000000013</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.225806451612947</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L32" t="n">
         <v>27.71</v>
@@ -1911,7 +1933,7 @@
         <v>5.100000000000012</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.225806451612947</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L33" t="n">
         <v>27.71999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>5.100000000000012</v>
       </c>
       <c r="K34" t="n">
-        <v>11.11111111111099</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L34" t="n">
         <v>27.72999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>3.703703703703753</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L35" t="n">
         <v>27.73999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>5.300000000000011</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L36" t="n">
         <v>27.73999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>5.300000000000011</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L37" t="n">
         <v>27.71999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>5.500000000000011</v>
       </c>
       <c r="K38" t="n">
-        <v>3.448275862068889</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L38" t="n">
         <v>27.71999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-10.34482758620691</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L39" t="n">
         <v>27.73999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>27.74999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>5.800000000000008</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L41" t="n">
         <v>27.75999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>5.900000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>4.000000000000057</v>
+        <v>-50</v>
       </c>
       <c r="L42" t="n">
         <v>27.73999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>5.900000000000009</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571433</v>
+        <v>-50</v>
       </c>
       <c r="L43" t="n">
         <v>27.7</v>
@@ -2472,7 +2494,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.347826086956589</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L44" t="n">
         <v>27.68</v>
@@ -2574,7 +2596,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.347826086956442</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L46" t="n">
         <v>27.66</v>
@@ -2625,7 +2647,7 @@
         <v>6.400000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.347826086956442</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L47" t="n">
         <v>27.67</v>
@@ -2676,7 +2698,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K48" t="n">
-        <v>-8.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>27.65</v>
@@ -2727,7 +2749,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K49" t="n">
-        <v>4.761904761904842</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L49" t="n">
         <v>27.64</v>
@@ -2829,7 +2851,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>5.26315789473694</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L51" t="n">
         <v>27.63000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>6.700000000000006</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>27.63000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>6.700000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>27.63000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>6.700000000000006</v>
       </c>
       <c r="K54" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>27.61000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>27.60000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K56" t="n">
-        <v>-6.66666666666654</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L56" t="n">
         <v>27.60000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.66666666666654</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L57" t="n">
         <v>27.58000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K58" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>27.56000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K59" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>27.55000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>7.100000000000009</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L60" t="n">
         <v>27.56000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>7.100000000000009</v>
       </c>
       <c r="K61" t="n">
-        <v>7.692307692307525</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L61" t="n">
         <v>27.57</v>
@@ -3390,7 +3412,7 @@
         <v>7.20000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>23.07692307692312</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L62" t="n">
         <v>27.6</v>
@@ -3441,7 +3463,7 @@
         <v>7.400000000000009</v>
       </c>
       <c r="K63" t="n">
-        <v>6.666666666666761</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L63" t="n">
         <v>27.61000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K64" t="n">
-        <v>6.666666666666761</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L64" t="n">
         <v>27.64000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>7.800000000000008</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.882352941176348</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>27.64000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>7.800000000000008</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.28571428571421</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L67" t="n">
         <v>27.64000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K68" t="n">
-        <v>-24.99999999999989</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L68" t="n">
         <v>27.62000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>8.400000000000009</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L69" t="n">
         <v>27.63000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K70" t="n">
-        <v>-10.00000000000011</v>
+        <v>-20</v>
       </c>
       <c r="L70" t="n">
         <v>27.60000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K71" t="n">
-        <v>-10.00000000000011</v>
+        <v>-28.57142857142868</v>
       </c>
       <c r="L71" t="n">
         <v>27.57000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.263157894736901</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L72" t="n">
         <v>27.53000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.263157894736901</v>
+        <v>-40.00000000000007</v>
       </c>
       <c r="L73" t="n">
         <v>27.51</v>
@@ -4002,7 +4024,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.263157894736901</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L74" t="n">
         <v>27.47</v>
@@ -4104,7 +4126,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K76" t="n">
-        <v>-9.090909090909179</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L76" t="n">
         <v>27.45</v>
@@ -4155,7 +4177,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.090909090909179</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L77" t="n">
         <v>27.42999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>9.100000000000016</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.090909090909033</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L78" t="n">
         <v>27.42999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>9.100000000000016</v>
       </c>
       <c r="K79" t="n">
-        <v>-9.090909090909033</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L79" t="n">
         <v>27.39999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>9.100000000000016</v>
       </c>
       <c r="K80" t="n">
-        <v>-19.99999999999986</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L80" t="n">
         <v>27.38999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>9.300000000000015</v>
       </c>
       <c r="K81" t="n">
-        <v>-27.2727272727271</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L81" t="n">
         <v>27.36</v>
@@ -4410,7 +4432,7 @@
         <v>9.400000000000013</v>
       </c>
       <c r="K82" t="n">
-        <v>-27.27272727272731</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L82" t="n">
         <v>27.34</v>
@@ -4461,7 +4483,7 @@
         <v>9.400000000000013</v>
       </c>
       <c r="K83" t="n">
-        <v>-20.00000000000007</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L83" t="n">
         <v>27.32</v>
@@ -4512,7 +4534,7 @@
         <v>9.400000000000013</v>
       </c>
       <c r="K84" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="L84" t="n">
         <v>27.3</v>
@@ -4563,7 +4585,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K85" t="n">
-        <v>-17.64705882352939</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L85" t="n">
         <v>27.27</v>
@@ -4614,7 +4636,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K86" t="n">
-        <v>-17.64705882352939</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L86" t="n">
         <v>27.26</v>
@@ -4665,7 +4687,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K87" t="n">
-        <v>-17.64705882352939</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>27.25000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K88" t="n">
-        <v>17.64705882352939</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L88" t="n">
         <v>27.28000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L89" t="n">
         <v>27.31000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>9.900000000000016</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307776</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L90" t="n">
         <v>27.33000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>20</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L91" t="n">
         <v>27.39</v>
@@ -4920,7 +4942,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>12.50000000000017</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L92" t="n">
         <v>27.43000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>22.22222222222233</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L93" t="n">
         <v>27.49000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>22.22222222222233</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L94" t="n">
         <v>27.55000000000001</v>
@@ -5077,7 +5099,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>12.49999999999997</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L95" t="n">
         <v>27.60000000000001</v>
@@ -5136,7 +5158,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>28.57142857142883</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L96" t="n">
         <v>27.65000000000001</v>
@@ -5195,7 +5217,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>27.68000000000001</v>
@@ -5254,7 +5276,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>27.68000000000001</v>
@@ -5313,7 +5335,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>25</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L99" t="n">
         <v>27.69000000000001</v>
@@ -5370,7 +5392,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>29.41176470588243</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L100" t="n">
         <v>27.72000000000001</v>
@@ -5425,7 +5447,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>46.66666666666673</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>27.73000000000001</v>
@@ -5482,7 +5504,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>46.66666666666673</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L102" t="n">
         <v>27.76000000000001</v>
@@ -5539,7 +5561,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>46.66666666666673</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L103" t="n">
         <v>27.77</v>
@@ -5596,7 +5618,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>37.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>27.77</v>
@@ -5653,7 +5675,7 @@
         <v>11.1</v>
       </c>
       <c r="K105" t="n">
-        <v>37.50000000000009</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L105" t="n">
         <v>27.78</v>
@@ -5710,7 +5732,7 @@
         <v>11.2</v>
       </c>
       <c r="K106" t="n">
-        <v>29.41176470588255</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L106" t="n">
         <v>27.78</v>
@@ -5767,7 +5789,7 @@
         <v>11.2</v>
       </c>
       <c r="K107" t="n">
-        <v>29.41176470588255</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L107" t="n">
         <v>27.8</v>
@@ -5824,7 +5846,7 @@
         <v>11.2</v>
       </c>
       <c r="K108" t="n">
-        <v>14.28571428571436</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L108" t="n">
         <v>27.82</v>
@@ -5938,7 +5960,7 @@
         <v>11.3</v>
       </c>
       <c r="K110" t="n">
-        <v>28.57142857142879</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>27.84999999999999</v>
@@ -5995,7 +6017,7 @@
         <v>11.3</v>
       </c>
       <c r="K111" t="n">
-        <v>16.66666666666682</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>27.85999999999999</v>
@@ -6052,7 +6074,7 @@
         <v>11.3</v>
       </c>
       <c r="K112" t="n">
-        <v>27.27272727272733</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>27.85999999999999</v>
@@ -6109,7 +6131,7 @@
         <v>11.3</v>
       </c>
       <c r="K113" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>27.85999999999999</v>
@@ -6166,7 +6188,7 @@
         <v>11.5</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.090909090909326</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L114" t="n">
         <v>27.84999999999999</v>
@@ -6223,7 +6245,7 @@
         <v>11.5</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.090909090909326</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L115" t="n">
         <v>27.82999999999999</v>
@@ -6280,7 +6302,7 @@
         <v>11.5</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.090909090909326</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L116" t="n">
         <v>27.81999999999999</v>
@@ -6337,7 +6359,7 @@
         <v>11.7</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.090909090909326</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L117" t="n">
         <v>27.78999999999998</v>
@@ -6394,7 +6416,7 @@
         <v>11.7</v>
       </c>
       <c r="K118" t="n">
-        <v>-9.090909090909326</v>
+        <v>-100</v>
       </c>
       <c r="L118" t="n">
         <v>27.75999999999998</v>
@@ -6451,7 +6473,7 @@
         <v>11.9</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>27.73999999999999</v>
@@ -6502,7 +6524,7 @@
         <v>12.1</v>
       </c>
       <c r="K120" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>27.73999999999999</v>
@@ -6553,7 +6575,7 @@
         <v>12.1</v>
       </c>
       <c r="K121" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>27.73999999999999</v>
@@ -6655,7 +6677,7 @@
         <v>12.1</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>27.73999999999999</v>
@@ -6706,7 +6728,7 @@
         <v>12.1</v>
       </c>
       <c r="K124" t="n">
-        <v>9.090909090908973</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>27.75999999999998</v>
@@ -6757,7 +6779,7 @@
         <v>12.2</v>
       </c>
       <c r="K125" t="n">
-        <v>9.090909090909268</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L125" t="n">
         <v>27.78999999999998</v>
@@ -6808,7 +6830,7 @@
         <v>12.2</v>
       </c>
       <c r="K126" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>27.81999999999999</v>
@@ -6859,7 +6881,7 @@
         <v>12.4</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L127" t="n">
         <v>27.84999999999999</v>
@@ -6910,7 +6932,7 @@
         <v>12.4</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L128" t="n">
         <v>27.87999999999999</v>
@@ -6961,7 +6983,7 @@
         <v>12.5</v>
       </c>
       <c r="K129" t="n">
-        <v>-16.66666666666662</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L129" t="n">
         <v>27.87999999999999</v>
@@ -7012,7 +7034,7 @@
         <v>12.6</v>
       </c>
       <c r="K130" t="n">
-        <v>-7.692307692307525</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L130" t="n">
         <v>27.86999999999999</v>
@@ -7063,7 +7085,7 @@
         <v>12.7</v>
       </c>
       <c r="K131" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L131" t="n">
         <v>27.84999999999999</v>
@@ -7114,7 +7136,7 @@
         <v>12.7</v>
       </c>
       <c r="K132" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L132" t="n">
         <v>27.82999999999999</v>
@@ -7165,7 +7187,7 @@
         <v>12.8</v>
       </c>
       <c r="K133" t="n">
-        <v>-6.666666666666508</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L133" t="n">
         <v>27.82</v>
@@ -7216,7 +7238,7 @@
         <v>13</v>
       </c>
       <c r="K134" t="n">
-        <v>-6.666666666666508</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L134" t="n">
         <v>27.79</v>
@@ -7267,7 +7289,7 @@
         <v>13.2</v>
       </c>
       <c r="K135" t="n">
-        <v>5.882352941176544</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L135" t="n">
         <v>27.77</v>
@@ -7318,7 +7340,7 @@
         <v>13.3</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L136" t="n">
         <v>27.74</v>
@@ -7369,7 +7391,7 @@
         <v>13.3</v>
       </c>
       <c r="K137" t="n">
-        <v>12.49999999999992</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L137" t="n">
         <v>27.73</v>
@@ -7420,7 +7442,7 @@
         <v>13.5</v>
       </c>
       <c r="K138" t="n">
-        <v>22.22222222222209</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L138" t="n">
         <v>27.74</v>
@@ -7471,7 +7493,7 @@
         <v>13.7</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L139" t="n">
         <v>27.74</v>
@@ -7522,7 +7544,7 @@
         <v>13.7</v>
       </c>
       <c r="K140" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>27.73</v>
@@ -7573,7 +7595,7 @@
         <v>13.9</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L141" t="n">
         <v>27.74999999999999</v>
@@ -7624,7 +7646,7 @@
         <v>14.1</v>
       </c>
       <c r="K142" t="n">
-        <v>-9.999999999999947</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L142" t="n">
         <v>27.74999999999999</v>
@@ -7675,7 +7697,7 @@
         <v>14.1</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.999999999999947</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L143" t="n">
         <v>27.73999999999999</v>
@@ -7726,7 +7748,7 @@
         <v>14.2</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.761904761904649</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>27.75999999999999</v>
@@ -7777,7 +7799,7 @@
         <v>14.5</v>
       </c>
       <c r="K145" t="n">
-        <v>-21.73913043478257</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L145" t="n">
         <v>27.72999999999999</v>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>27.51833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.8</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +493,18 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +534,18 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +575,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5000000000000036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +607,21 @@
         <v>27.46833333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4000000000000021</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.600000000000005</v>
+        <v>27.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +653,14 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.000000000000007</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +687,21 @@
         <v>27.46666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.300000000000008</v>
+        <v>28</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +731,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.400000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +770,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.500000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +811,14 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.800000000000011</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +850,14 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.800000000000011</v>
-      </c>
-      <c r="K12" t="n">
-        <v>28.57142857142854</v>
-      </c>
-      <c r="L12" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +887,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.000000000000011</v>
-      </c>
-      <c r="K13" t="n">
-        <v>37.49999999999989</v>
-      </c>
-      <c r="L13" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +926,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.400000000000009</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.263157894736901</v>
-      </c>
-      <c r="L14" t="n">
-        <v>27.81000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +965,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.500000000000007</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15.78947368421055</v>
-      </c>
-      <c r="L15" t="n">
-        <v>27.83000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1004,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.500000000000007</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-6.666666666666761</v>
-      </c>
-      <c r="L16" t="n">
-        <v>27.86000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1043,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.500000000000007</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L17" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1084,14 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1121,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.800000000000008</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L19" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1160,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L20" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1199,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.200000000000006</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L21" t="n">
-        <v>27.76</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>27.745</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1238,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.400000000000009</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L22" t="n">
-        <v>27.72</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>27.725</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1435,24 +1279,14 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.800000000000011</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L23" t="n">
-        <v>27.7</v>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>27.745</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,24 +1318,14 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.800000000000011</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7.692307692307776</v>
-      </c>
-      <c r="L24" t="n">
-        <v>27.72</v>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>27.765</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1355,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.900000000000013</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>27.72</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>27.77500000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1394,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.900000000000013</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>27.72</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>27.79000000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1433,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.100000000000012</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L27" t="n">
-        <v>27.74</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>27.79500000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1472,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.100000000000012</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L28" t="n">
-        <v>27.74999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>27.78500000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1511,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.500000000000011</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L29" t="n">
-        <v>27.7</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>27.76000000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1550,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.600000000000012</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>27.69</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>27.73500000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1589,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.700000000000014</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7.692307692307776</v>
-      </c>
-      <c r="L31" t="n">
-        <v>27.68</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>27.72333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1628,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.900000000000013</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L32" t="n">
-        <v>27.71</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>27.71500000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1667,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.100000000000012</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7.692307692307525</v>
-      </c>
-      <c r="L33" t="n">
-        <v>27.71999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>27.71000000000002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>27.73666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1706,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.100000000000012</v>
-      </c>
-      <c r="K34" t="n">
-        <v>16.66666666666662</v>
-      </c>
-      <c r="L34" t="n">
-        <v>27.72999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>27.72500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>27.75333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2031,26 +1747,14 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.20000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7.692307692307819</v>
-      </c>
-      <c r="L35" t="n">
-        <v>27.73999999999999</v>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>27.73000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>27.76333333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1784,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.300000000000011</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L36" t="n">
-        <v>27.73999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>27.73000000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>27.77333333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1823,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.300000000000011</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L37" t="n">
-        <v>27.71999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>27.73000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>27.77000000000001</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1862,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.500000000000011</v>
-      </c>
-      <c r="K38" t="n">
-        <v>39.99999999999986</v>
-      </c>
-      <c r="L38" t="n">
-        <v>27.71999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>27.73500000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>27.76333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,30 +1901,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.70000000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9.090909090908914</v>
-      </c>
-      <c r="L39" t="n">
-        <v>27.73999999999999</v>
-      </c>
-      <c r="M39" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>27.75333333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2284,28 +1938,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.70000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>20</v>
-      </c>
-      <c r="L40" t="n">
-        <v>27.74999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>27.74000000000001</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1973,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.800000000000008</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-11.11111111111093</v>
-      </c>
-      <c r="L41" t="n">
-        <v>27.75999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>27.73333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2008,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.900000000000009</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L42" t="n">
-        <v>27.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>27.72500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>27.72333333333335</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2043,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.900000000000009</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L43" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>27.71000000000002</v>
-      </c>
-      <c r="N43" t="n">
-        <v>27.70666666666668</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2078,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6.100000000000009</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L44" t="n">
-        <v>27.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>27.70500000000002</v>
-      </c>
-      <c r="N44" t="n">
-        <v>27.71000000000002</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2113,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.100000000000009</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>27.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>27.70500000000002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>27.71000000000002</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2148,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6.200000000000006</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-11.11111111111093</v>
-      </c>
-      <c r="L46" t="n">
-        <v>27.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>27.70000000000002</v>
-      </c>
-      <c r="N46" t="n">
-        <v>27.70666666666668</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2643,26 +2185,10 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>6.400000000000006</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-11.11111111111093</v>
-      </c>
-      <c r="L47" t="n">
-        <v>27.67</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>27.69500000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>27.71000000000001</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2218,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.500000000000007</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>27.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>27.68500000000002</v>
-      </c>
-      <c r="N48" t="n">
-        <v>27.70666666666668</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2253,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6.600000000000005</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-11.11111111111093</v>
-      </c>
-      <c r="L49" t="n">
-        <v>27.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>27.69000000000002</v>
-      </c>
-      <c r="N49" t="n">
-        <v>27.69333333333335</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2288,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6.600000000000005</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>27.69000000000002</v>
-      </c>
-      <c r="N50" t="n">
-        <v>27.69000000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2323,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6.600000000000005</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L51" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>27.69500000000002</v>
-      </c>
-      <c r="N51" t="n">
-        <v>27.69000000000001</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2358,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6.700000000000006</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>27.68500000000002</v>
-      </c>
-      <c r="N52" t="n">
-        <v>27.69333333333335</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2393,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J53" t="n">
-        <v>6.700000000000006</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>27.66500000000002</v>
-      </c>
-      <c r="N53" t="n">
-        <v>27.68333333333335</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2428,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6.700000000000006</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L54" t="n">
-        <v>27.61000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>27.64500000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>27.67333333333335</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2463,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6.800000000000008</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>27.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>27.63500000000003</v>
-      </c>
-      <c r="N55" t="n">
-        <v>27.67000000000002</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2498,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6.800000000000008</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L56" t="n">
-        <v>27.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>27.63000000000002</v>
-      </c>
-      <c r="N56" t="n">
-        <v>27.66666666666668</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2533,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.800000000000008</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L57" t="n">
-        <v>27.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>27.62500000000002</v>
-      </c>
-      <c r="N57" t="n">
-        <v>27.65666666666668</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2568,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.900000000000009</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>27.56000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>27.60500000000003</v>
-      </c>
-      <c r="N58" t="n">
-        <v>27.64333333333335</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2603,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.900000000000009</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>27.55000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>27.59500000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>27.64333333333335</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2638,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7.100000000000009</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19.99999999999943</v>
-      </c>
-      <c r="L60" t="n">
-        <v>27.56000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>27.59500000000002</v>
-      </c>
-      <c r="N60" t="n">
-        <v>27.64666666666669</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2673,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.100000000000009</v>
-      </c>
-      <c r="K61" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L61" t="n">
-        <v>27.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>27.60000000000002</v>
-      </c>
-      <c r="N61" t="n">
-        <v>27.65333333333335</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,26 +2710,10 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>7.20000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L62" t="n">
-        <v>27.6</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>27.61500000000002</v>
-      </c>
-      <c r="N62" t="n">
-        <v>27.65666666666668</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2743,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.400000000000009</v>
-      </c>
-      <c r="K63" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L63" t="n">
-        <v>27.61000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>27.62000000000002</v>
-      </c>
-      <c r="N63" t="n">
-        <v>27.64666666666669</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,26 +2780,10 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>7.600000000000009</v>
-      </c>
-      <c r="K64" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L64" t="n">
-        <v>27.64000000000001</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>27.62500000000002</v>
-      </c>
-      <c r="N64" t="n">
-        <v>27.64333333333335</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2813,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7.800000000000008</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>27.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>27.62000000000002</v>
-      </c>
-      <c r="N65" t="n">
-        <v>27.63666666666669</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2848,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.800000000000008</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>27.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>27.62000000000002</v>
-      </c>
-      <c r="N66" t="n">
-        <v>27.63333333333335</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2883,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.800000000000008</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L67" t="n">
-        <v>27.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>27.61000000000002</v>
-      </c>
-      <c r="N67" t="n">
-        <v>27.63000000000002</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2918,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8.100000000000009</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L68" t="n">
-        <v>27.62000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>27.59000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>27.61000000000002</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2953,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8.400000000000009</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-7.692307692307525</v>
-      </c>
-      <c r="L69" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>27.59000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>27.60666666666668</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2988,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8.600000000000012</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L70" t="n">
-        <v>27.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>27.58000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>27.59666666666668</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3023,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J71" t="n">
-        <v>8.600000000000012</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-28.57142857142868</v>
-      </c>
-      <c r="L71" t="n">
-        <v>27.57000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>27.57000000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>27.59000000000001</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3058,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8.600000000000012</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L72" t="n">
-        <v>27.53000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>27.56500000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>27.58666666666668</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3093,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8.600000000000012</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-40.00000000000007</v>
-      </c>
-      <c r="L73" t="n">
-        <v>27.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>27.56000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>27.58333333333335</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3128,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J74" t="n">
-        <v>8.600000000000012</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-25.00000000000022</v>
-      </c>
-      <c r="L74" t="n">
-        <v>27.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>27.55500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>27.57333333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3163,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J75" t="n">
-        <v>8.800000000000015</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>27.55500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>27.57000000000001</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3198,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J76" t="n">
-        <v>9.000000000000018</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-16.66666666666677</v>
-      </c>
-      <c r="L76" t="n">
-        <v>27.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>27.54500000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>27.56333333333334</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3233,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.4000000000000021</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9.000000000000018</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.11111111111076</v>
-      </c>
-      <c r="L77" t="n">
-        <v>27.42999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>27.535</v>
-      </c>
-      <c r="N77" t="n">
-        <v>27.55000000000001</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3268,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>9.100000000000016</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-42.85714285714256</v>
-      </c>
-      <c r="L78" t="n">
-        <v>27.42999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>27.525</v>
-      </c>
-      <c r="N78" t="n">
-        <v>27.53666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3303,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>9.100000000000016</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-19.99999999999943</v>
-      </c>
-      <c r="L79" t="n">
-        <v>27.39999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>27.515</v>
-      </c>
-      <c r="N79" t="n">
-        <v>27.52666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3335,19 @@
         <v>27.60333333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>9.100000000000016</v>
+        <v>27.3</v>
       </c>
       <c r="K80" t="n">
-        <v>-19.99999999999943</v>
-      </c>
-      <c r="L80" t="n">
-        <v>27.38999999999999</v>
-      </c>
+        <v>27.3</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>27.49499999999999</v>
-      </c>
-      <c r="N80" t="n">
-        <v>27.51666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3374,23 @@
         <v>27.595</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>9.300000000000015</v>
+        <v>27.2</v>
       </c>
       <c r="K81" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L81" t="n">
-        <v>27.36</v>
+        <v>27.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>27.46499999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3417,23 @@
         <v>27.59166666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>9.400000000000013</v>
+        <v>27.2</v>
       </c>
       <c r="K82" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L82" t="n">
-        <v>27.34</v>
+        <v>27.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>27.435</v>
-      </c>
-      <c r="N82" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3460,23 @@
         <v>27.58166666666666</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>9.400000000000013</v>
+        <v>27.2</v>
       </c>
       <c r="K83" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L83" t="n">
-        <v>27.32</v>
+        <v>27.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>27.415</v>
-      </c>
-      <c r="N83" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3503,23 @@
         <v>27.57166666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>9.400000000000013</v>
+        <v>27.2</v>
       </c>
       <c r="K84" t="n">
-        <v>-66.66666666666727</v>
-      </c>
-      <c r="L84" t="n">
-        <v>27.3</v>
+        <v>27.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>27.385</v>
-      </c>
-      <c r="N84" t="n">
-        <v>27.47000000000001</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3546,23 @@
         <v>27.565</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>9.500000000000014</v>
+        <v>27.3</v>
       </c>
       <c r="K85" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L85" t="n">
-        <v>27.27</v>
+        <v>27.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="N85" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3589,23 @@
         <v>27.55833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>9.500000000000014</v>
+        <v>27.3</v>
       </c>
       <c r="K86" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L86" t="n">
-        <v>27.26</v>
+        <v>27.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>27.355</v>
-      </c>
-      <c r="N86" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3632,23 @@
         <v>27.54833333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>9.500000000000014</v>
+        <v>27.3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>27.25000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>27.33999999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3675,23 @@
         <v>27.54333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>9.800000000000015</v>
+        <v>27.6</v>
       </c>
       <c r="K88" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L88" t="n">
-        <v>27.28000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>27.355</v>
-      </c>
-      <c r="N88" t="n">
-        <v>27.44333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3718,23 @@
         <v>27.54499999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>9.800000000000015</v>
+        <v>27.6</v>
       </c>
       <c r="K89" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L89" t="n">
-        <v>27.31000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>27.355</v>
-      </c>
-      <c r="N89" t="n">
-        <v>27.44666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3761,23 @@
         <v>27.54333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>9.900000000000016</v>
+        <v>27.5</v>
       </c>
       <c r="K90" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L90" t="n">
-        <v>27.33000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="N90" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3807,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10.10000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L91" t="n">
-        <v>27.39</v>
+        <v>27.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>27.375</v>
-      </c>
-      <c r="N91" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3848,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.20000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L92" t="n">
-        <v>27.43000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>27.385</v>
-      </c>
-      <c r="N92" t="n">
-        <v>27.43333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,26 +3891,16 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>10.40000000000001</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L93" t="n">
-        <v>27.49000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>27.405</v>
-      </c>
-      <c r="N93" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,35 +3927,21 @@
         <v>27.54166666666665</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>10.40000000000001</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L94" t="n">
-        <v>27.55000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>27.425</v>
-      </c>
-      <c r="N94" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="O94" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,39 +3968,21 @@
         <v>27.54166666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>10.40000000000001</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L95" t="n">
-        <v>27.60000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>27.435</v>
-      </c>
-      <c r="N95" t="n">
-        <v>27.44666666666666</v>
-      </c>
-      <c r="O95" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,39 +4009,21 @@
         <v>27.54333333333332</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>10.40000000000001</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L96" t="n">
-        <v>27.65000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>27.45499999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>27.45333333333333</v>
-      </c>
-      <c r="O96" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,39 +4050,21 @@
         <v>27.54166666666665</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>27.68000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>27.465</v>
-      </c>
-      <c r="N97" t="n">
-        <v>27.45333333333333</v>
-      </c>
-      <c r="O97" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,39 +4091,21 @@
         <v>27.53666666666664</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>27.68000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="N98" t="n">
-        <v>27.46333333333333</v>
-      </c>
-      <c r="O98" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,34 +4135,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>25.00000000000011</v>
-      </c>
-      <c r="L99" t="n">
-        <v>27.69000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>27.50000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>27.46666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,30 +4178,16 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>10.80000000000001</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L100" t="n">
-        <v>27.72000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>27.52500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="n">
-        <v>28.77</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,32 +4219,16 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>10.80000000000001</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>27.73000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="N101" t="n">
-        <v>27.49333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,34 +4258,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L102" t="n">
-        <v>27.76000000000001</v>
+        <v>27.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>27.595</v>
-      </c>
-      <c r="N102" t="n">
-        <v>27.50999999999999</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,34 +4299,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L103" t="n">
-        <v>27.77</v>
+        <v>27.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="N103" t="n">
-        <v>27.52666666666666</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,32 +4342,16 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>11.00000000000001</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>27.77</v>
+        <v>27.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>27.65999999999999</v>
-      </c>
-      <c r="N104" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5669,35 +4381,19 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L105" t="n">
-        <v>27.78</v>
+        <v>27.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>27.68999999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>27.54999999999999</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S105" t="n">
-        <v>1</v>
+        <v>1.016978021978022</v>
       </c>
     </row>
     <row r="106">
@@ -5726,34 +4422,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>33.33333333333373</v>
-      </c>
-      <c r="L106" t="n">
-        <v>27.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>27.71499999999999</v>
-      </c>
-      <c r="N106" t="n">
-        <v>27.56333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,32 +4459,10 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>33.33333333333373</v>
-      </c>
-      <c r="L107" t="n">
-        <v>27.8</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>27.73999999999999</v>
-      </c>
-      <c r="N107" t="n">
-        <v>27.57666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,32 +4494,10 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K108" t="n">
-        <v>20.00000000000057</v>
-      </c>
-      <c r="L108" t="n">
-        <v>27.82</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>27.74999999999999</v>
-      </c>
-      <c r="N108" t="n">
-        <v>27.59333333333332</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,34 +4527,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J109" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K109" t="n">
-        <v>20</v>
-      </c>
-      <c r="L109" t="n">
-        <v>27.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>27.76499999999999</v>
-      </c>
-      <c r="N109" t="n">
-        <v>27.61333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,34 +4562,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J110" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K110" t="n">
-        <v>20</v>
-      </c>
-      <c r="L110" t="n">
-        <v>27.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>27.78499999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>27.63333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6011,34 +4597,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J111" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>27.85999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>27.79499999999998</v>
-      </c>
-      <c r="N111" t="n">
-        <v>27.65999999999999</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,34 +4632,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J112" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>27.85999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>27.80999999999998</v>
-      </c>
-      <c r="N112" t="n">
-        <v>27.68333333333332</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6125,34 +4667,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L113" t="n">
-        <v>27.85999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>27.81499999999998</v>
-      </c>
-      <c r="N113" t="n">
-        <v>27.70666666666665</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6182,34 +4702,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-50.00000000000044</v>
-      </c>
-      <c r="L114" t="n">
-        <v>27.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>27.80999999999998</v>
-      </c>
-      <c r="N114" t="n">
-        <v>27.72333333333332</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,34 +4737,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J115" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-33.33333333333412</v>
-      </c>
-      <c r="L115" t="n">
-        <v>27.82999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>27.80499999999999</v>
-      </c>
-      <c r="N115" t="n">
-        <v>27.73666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,34 +4772,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J116" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-33.33333333333412</v>
-      </c>
-      <c r="L116" t="n">
-        <v>27.81999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>27.79999999999999</v>
-      </c>
-      <c r="N116" t="n">
-        <v>27.74999999999999</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6353,34 +4807,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J117" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-60.00000000000056</v>
-      </c>
-      <c r="L117" t="n">
-        <v>27.78999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>27.79499999999999</v>
-      </c>
-      <c r="N117" t="n">
-        <v>27.75666666666666</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6410,35 +4842,13 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J118" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L118" t="n">
-        <v>27.75999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>27.78999999999999</v>
-      </c>
-      <c r="N118" t="n">
-        <v>27.75333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S118" t="n">
-        <v>0.9842086330935251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -6467,28 +4877,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L119" t="n">
-        <v>27.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>27.78999999999999</v>
-      </c>
-      <c r="N119" t="n">
-        <v>27.75666666666666</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,28 +4912,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J120" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>27.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>27.79499999999999</v>
-      </c>
-      <c r="N120" t="n">
-        <v>27.76999999999999</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6569,28 +4947,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J121" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>27.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>27.79999999999999</v>
-      </c>
-      <c r="N121" t="n">
-        <v>27.77666666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6620,28 +4982,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J122" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>27.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>27.79999999999999</v>
-      </c>
-      <c r="N122" t="n">
-        <v>27.78666666666665</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6671,28 +5017,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J123" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L123" t="n">
-        <v>27.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>27.79999999999999</v>
-      </c>
-      <c r="N123" t="n">
-        <v>27.78999999999999</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6722,1099 +5052,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J124" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K124" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>27.75999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>27.805</v>
-      </c>
-      <c r="N124" t="n">
-        <v>27.79333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>28</v>
-      </c>
-      <c r="C125" t="n">
-        <v>28</v>
-      </c>
-      <c r="D125" t="n">
-        <v>28</v>
-      </c>
-      <c r="E125" t="n">
-        <v>28</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2580.4892</v>
-      </c>
-      <c r="G125" t="n">
-        <v>27.62333333333334</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K125" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L125" t="n">
-        <v>27.78999999999998</v>
-      </c>
-      <c r="M125" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="N125" t="n">
-        <v>27.79999999999999</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>28</v>
-      </c>
-      <c r="C126" t="n">
-        <v>28</v>
-      </c>
-      <c r="D126" t="n">
-        <v>28</v>
-      </c>
-      <c r="E126" t="n">
-        <v>28</v>
-      </c>
-      <c r="F126" t="n">
-        <v>68124.35709999999</v>
-      </c>
-      <c r="G126" t="n">
-        <v>27.63000000000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K126" t="n">
-        <v>100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>27.81999999999999</v>
-      </c>
-      <c r="M126" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="N126" t="n">
-        <v>27.80666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>66651.61659999999</v>
-      </c>
-      <c r="G127" t="n">
-        <v>27.63333333333334</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K127" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L127" t="n">
-        <v>27.84999999999999</v>
-      </c>
-      <c r="M127" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="N127" t="n">
-        <v>27.81333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>300</v>
-      </c>
-      <c r="G128" t="n">
-        <v>27.64166666666668</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L128" t="n">
-        <v>27.87999999999999</v>
-      </c>
-      <c r="M128" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="N128" t="n">
-        <v>27.81999999999999</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19851.4201</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27.64333333333335</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J129" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L129" t="n">
-        <v>27.87999999999999</v>
-      </c>
-      <c r="M129" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="N129" t="n">
-        <v>27.81999999999999</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>7034.4752</v>
-      </c>
-      <c r="G130" t="n">
-        <v>27.65000000000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-19.99999999999943</v>
-      </c>
-      <c r="L130" t="n">
-        <v>27.86999999999999</v>
-      </c>
-      <c r="M130" t="n">
-        <v>27.805</v>
-      </c>
-      <c r="N130" t="n">
-        <v>27.81999999999999</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>28201.7376</v>
-      </c>
-      <c r="G131" t="n">
-        <v>27.65500000000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J131" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L131" t="n">
-        <v>27.84999999999999</v>
-      </c>
-      <c r="M131" t="n">
-        <v>27.79500000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>27.81666666666666</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E132" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G132" t="n">
-        <v>27.66000000000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J132" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L132" t="n">
-        <v>27.82999999999999</v>
-      </c>
-      <c r="M132" t="n">
-        <v>27.78500000000001</v>
-      </c>
-      <c r="N132" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>16512.9616</v>
-      </c>
-      <c r="G133" t="n">
-        <v>27.66666666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-14.28571428571385</v>
-      </c>
-      <c r="L133" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="M133" t="n">
-        <v>27.78000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>27.80666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4502.7295</v>
-      </c>
-      <c r="G134" t="n">
-        <v>27.67000000000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J134" t="n">
-        <v>13</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L134" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="M134" t="n">
-        <v>27.77500000000001</v>
-      </c>
-      <c r="N134" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>29948.2112</v>
-      </c>
-      <c r="G135" t="n">
-        <v>27.67333333333334</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L135" t="n">
-        <v>27.77</v>
-      </c>
-      <c r="M135" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="N135" t="n">
-        <v>27.79666666666666</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4482.7635</v>
-      </c>
-      <c r="G136" t="n">
-        <v>27.67833333333334</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J136" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L136" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="M136" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="N136" t="n">
-        <v>27.79333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>91363.0671</v>
-      </c>
-      <c r="G137" t="n">
-        <v>27.68333333333334</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J137" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L137" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="M137" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="N137" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>20367.5058</v>
-      </c>
-      <c r="G138" t="n">
-        <v>27.69333333333334</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J138" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K138" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L138" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="M138" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="N138" t="n">
-        <v>27.79333333333334</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>259.5594</v>
-      </c>
-      <c r="G139" t="n">
-        <v>27.70000000000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J139" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L139" t="n">
-        <v>27.74</v>
-      </c>
-      <c r="M139" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="N139" t="n">
-        <v>27.78666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>259</v>
-      </c>
-      <c r="G140" t="n">
-        <v>27.70666666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J140" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="M140" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="N140" t="n">
-        <v>27.78000000000001</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>32700</v>
-      </c>
-      <c r="G141" t="n">
-        <v>27.72000000000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J141" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K141" t="n">
-        <v>16.66666666666662</v>
-      </c>
-      <c r="L141" t="n">
-        <v>27.74999999999999</v>
-      </c>
-      <c r="M141" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="N141" t="n">
-        <v>27.78000000000001</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F142" t="n">
-        <v>299.25</v>
-      </c>
-      <c r="G142" t="n">
-        <v>27.72833333333335</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J142" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L142" t="n">
-        <v>27.74999999999999</v>
-      </c>
-      <c r="M142" t="n">
-        <v>27.79000000000001</v>
-      </c>
-      <c r="N142" t="n">
-        <v>27.77333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8300</v>
-      </c>
-      <c r="G143" t="n">
-        <v>27.73666666666668</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J143" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>9.090909090908914</v>
-      </c>
-      <c r="L143" t="n">
-        <v>27.73999999999999</v>
-      </c>
-      <c r="M143" t="n">
-        <v>27.78000000000001</v>
-      </c>
-      <c r="N143" t="n">
-        <v>27.76666666666668</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>25186.223</v>
-      </c>
-      <c r="G144" t="n">
-        <v>27.74666666666668</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>27.75999999999999</v>
-      </c>
-      <c r="M144" t="n">
-        <v>27.77500000000001</v>
-      </c>
-      <c r="N144" t="n">
-        <v>27.77000000000001</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>25186.223</v>
-      </c>
-      <c r="G145" t="n">
-        <v>27.75000000000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J145" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L145" t="n">
-        <v>27.72999999999999</v>
-      </c>
-      <c r="M145" t="n">
-        <v>27.75000000000001</v>
-      </c>
-      <c r="N145" t="n">
-        <v>27.76333333333334</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -451,17 +451,13 @@
         <v>27.51833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>27.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -607,20 +591,14 @@
         <v>27.46833333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>27.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -655,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -687,20 +661,14 @@
         <v>27.46666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>28</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -735,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -809,15 +769,11 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -852,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -891,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -930,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -969,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1125,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1281,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1359,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1398,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1437,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1476,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1515,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1593,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1632,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1671,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1710,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1749,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1788,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1866,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1901,16 +1749,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3335,17 +3181,13 @@
         <v>27.60333333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3374,22 +3216,14 @@
         <v>27.595</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K81" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3417,22 +3251,14 @@
         <v>27.59166666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K82" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3469,13 +3295,9 @@
         <v>27.2</v>
       </c>
       <c r="K83" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>27.2</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3334,11 @@
         <v>27.2</v>
       </c>
       <c r="K84" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3552,14 +3374,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="K85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3600,11 +3422,7 @@
       <c r="K86" t="n">
         <v>27.3</v>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3632,20 +3450,18 @@
         <v>27.54833333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>27.3</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3675,20 +3491,18 @@
         <v>27.54333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>27.6</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>27.3</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3718,22 +3532,14 @@
         <v>27.54499999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K89" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3761,22 +3567,14 @@
         <v>27.54333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K90" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3678,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3933,14 +3713,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3974,14 +3748,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3783,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3818,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4097,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4179,14 +3923,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4220,14 +3958,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3993,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +4028,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4343,14 +4063,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4381,19 +4095,13 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1.016978021978022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4422,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C2" t="n">
         <v>27.8</v>
@@ -442,13 +442,13 @@
         <v>27.8</v>
       </c>
       <c r="E2" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F2" t="n">
-        <v>22484.7841</v>
+        <v>3603.2338</v>
       </c>
       <c r="G2" t="n">
-        <v>27.51833333333333</v>
+        <v>27.52166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>22484.7841</v>
       </c>
       <c r="G3" t="n">
-        <v>27.505</v>
+        <v>27.51833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>27.4</v>
       </c>
       <c r="F4" t="n">
-        <v>20213.6522</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>27.49166666666667</v>
+        <v>27.505</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E5" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F5" t="n">
-        <v>132</v>
+        <v>20213.6522</v>
       </c>
       <c r="G5" t="n">
-        <v>27.48166666666667</v>
+        <v>27.49166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>27.5</v>
       </c>
       <c r="C6" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D6" t="n">
         <v>27.5</v>
       </c>
       <c r="E6" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19897.2566</v>
+        <v>132</v>
       </c>
       <c r="G6" t="n">
-        <v>27.46833333333334</v>
+        <v>27.48166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D7" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E7" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F7" t="n">
-        <v>162525.2828</v>
+        <v>19897.2566</v>
       </c>
       <c r="G7" t="n">
-        <v>27.465</v>
+        <v>27.46833333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C8" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="D8" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="F8" t="n">
-        <v>121618.2011</v>
+        <v>162525.2828</v>
       </c>
       <c r="G8" t="n">
-        <v>27.46666666666667</v>
+        <v>27.465</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>28</v>
+      </c>
+      <c r="C9" t="n">
         <v>28.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>28.1</v>
       </c>
       <c r="E9" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>49973.8583</v>
+        <v>121618.2011</v>
       </c>
       <c r="G9" t="n">
-        <v>27.47</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C10" t="n">
         <v>28</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28.1</v>
       </c>
       <c r="D10" t="n">
         <v>28.1</v>
       </c>
       <c r="E10" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F10" t="n">
-        <v>55721.1965</v>
+        <v>49973.8583</v>
       </c>
       <c r="G10" t="n">
-        <v>27.47166666666667</v>
+        <v>27.47</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F11" t="n">
-        <v>310.187</v>
+        <v>55721.1965</v>
       </c>
       <c r="G11" t="n">
-        <v>27.47</v>
+        <v>27.47166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>3882.4029</v>
+        <v>310.187</v>
       </c>
       <c r="G12" t="n">
         <v>27.47</v>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>3882.4029</v>
       </c>
       <c r="G13" t="n">
-        <v>27.47333333333333</v>
+        <v>27.47</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>7341.6326</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>27.47</v>
+        <v>27.47333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>27.8</v>
       </c>
       <c r="C15" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D15" t="n">
         <v>27.8</v>
       </c>
       <c r="E15" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F15" t="n">
-        <v>16252.8676</v>
+        <v>7341.6326</v>
       </c>
       <c r="G15" t="n">
-        <v>27.46833333333333</v>
+        <v>27.47</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C16" t="n">
         <v>27.7</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E16" t="n">
         <v>27.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7391.4207</v>
+        <v>16252.8676</v>
       </c>
       <c r="G16" t="n">
-        <v>27.46666666666667</v>
+        <v>27.46833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>27.7</v>
       </c>
       <c r="F17" t="n">
-        <v>29888.0571</v>
+        <v>7391.4207</v>
       </c>
       <c r="G17" t="n">
-        <v>27.465</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D18" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F18" t="n">
-        <v>727.5217</v>
+        <v>29888.0571</v>
       </c>
       <c r="G18" t="n">
-        <v>27.46833333333334</v>
+        <v>27.465</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E19" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2010</v>
+        <v>727.5217</v>
       </c>
       <c r="G19" t="n">
-        <v>27.475</v>
+        <v>27.46833333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C20" t="n">
         <v>28</v>
-      </c>
-      <c r="C20" t="n">
-        <v>27.7</v>
       </c>
       <c r="D20" t="n">
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F20" t="n">
-        <v>26630.3571</v>
+        <v>2010</v>
       </c>
       <c r="G20" t="n">
         <v>27.475</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D21" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>27.6</v>
       </c>
       <c r="F21" t="n">
-        <v>463.1661</v>
+        <v>26630.3571</v>
       </c>
       <c r="G21" t="n">
-        <v>27.47166666666667</v>
+        <v>27.475</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C22" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E22" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F22" t="n">
-        <v>25314.7857</v>
+        <v>463.1661</v>
       </c>
       <c r="G22" t="n">
-        <v>27.46500000000001</v>
+        <v>27.47166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C23" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D23" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F23" t="n">
-        <v>946.6679</v>
+        <v>25314.7857</v>
       </c>
       <c r="G23" t="n">
-        <v>27.47166666666667</v>
+        <v>27.46500000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C24" t="n">
         <v>27.8</v>
@@ -1212,13 +1212,13 @@
         <v>27.8</v>
       </c>
       <c r="E24" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F24" t="n">
-        <v>2306.8307</v>
+        <v>946.6679</v>
       </c>
       <c r="G24" t="n">
-        <v>27.48333333333334</v>
+        <v>27.47166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>27.7</v>
       </c>
       <c r="C25" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D25" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E25" t="n">
         <v>27.7</v>
       </c>
       <c r="F25" t="n">
-        <v>22929.802</v>
+        <v>2306.8307</v>
       </c>
       <c r="G25" t="n">
-        <v>27.495</v>
+        <v>27.48333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C26" t="n">
         <v>27.7</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E26" t="n">
         <v>27.7</v>
       </c>
       <c r="F26" t="n">
-        <v>17054.1588</v>
+        <v>22929.802</v>
       </c>
       <c r="G26" t="n">
-        <v>27.50500000000001</v>
+        <v>27.495</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>17054.1588</v>
       </c>
       <c r="G27" t="n">
-        <v>27.51666666666667</v>
+        <v>27.50500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C28" t="n">
         <v>27.9</v>
@@ -1352,13 +1352,13 @@
         <v>27.9</v>
       </c>
       <c r="E28" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F28" t="n">
-        <v>7517.0343</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>27.52833333333334</v>
+        <v>27.51666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C29" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="D29" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E29" t="n">
         <v>27.5</v>
       </c>
       <c r="F29" t="n">
-        <v>36491.2479</v>
+        <v>7517.0343</v>
       </c>
       <c r="G29" t="n">
-        <v>27.53166666666668</v>
+        <v>27.52833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E30" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1001.3174</v>
+        <v>36491.2479</v>
       </c>
       <c r="G30" t="n">
-        <v>27.53333333333334</v>
+        <v>27.53166666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F31" t="n">
-        <v>9400</v>
+        <v>1001.3174</v>
       </c>
       <c r="G31" t="n">
-        <v>27.53166666666668</v>
+        <v>27.53333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E32" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>9400</v>
       </c>
       <c r="G32" t="n">
-        <v>27.53333333333335</v>
+        <v>27.53166666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E33" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>27.53833333333335</v>
+        <v>27.53333333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>27.9</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>27.54333333333335</v>
+        <v>27.53833333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E35" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>27.54666666666668</v>
+        <v>27.54333333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E36" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F36" t="n">
-        <v>979.8411</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
         <v>27.54666666666668</v>
@@ -1670,7 +1670,7 @@
         <v>27.7</v>
       </c>
       <c r="F37" t="n">
-        <v>684.7645</v>
+        <v>979.8411</v>
       </c>
       <c r="G37" t="n">
         <v>27.54666666666668</v>
@@ -1693,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E38" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F38" t="n">
-        <v>14755.1254</v>
+        <v>684.7645</v>
       </c>
       <c r="G38" t="n">
         <v>27.54666666666668</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C39" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D39" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E39" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F39" t="n">
-        <v>39077.8479</v>
+        <v>14755.1254</v>
       </c>
       <c r="G39" t="n">
-        <v>27.55000000000002</v>
+        <v>27.54666666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C40" t="n">
         <v>27.7</v>
       </c>
       <c r="D40" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E40" t="n">
         <v>27.7</v>
       </c>
       <c r="F40" t="n">
-        <v>4425.9079</v>
+        <v>39077.8479</v>
       </c>
       <c r="G40" t="n">
-        <v>27.55500000000002</v>
+        <v>27.55000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E41" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1802.8835</v>
+        <v>4425.9079</v>
       </c>
       <c r="G41" t="n">
-        <v>27.55666666666668</v>
+        <v>27.55500000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E42" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F42" t="n">
-        <v>11629.7375</v>
+        <v>1802.8835</v>
       </c>
       <c r="G42" t="n">
-        <v>27.55833333333335</v>
+        <v>27.55666666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>27.5</v>
       </c>
       <c r="F43" t="n">
-        <v>9361.179400000001</v>
+        <v>11629.7375</v>
       </c>
       <c r="G43" t="n">
-        <v>27.56000000000001</v>
+        <v>27.55833333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E44" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>9361.179400000001</v>
       </c>
       <c r="G44" t="n">
-        <v>27.56833333333335</v>
+        <v>27.56000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>27.7</v>
       </c>
       <c r="E45" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F45" t="n">
-        <v>35435.8488</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>27.57666666666668</v>
+        <v>27.56833333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C46" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D46" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E46" t="n">
         <v>27.6</v>
       </c>
       <c r="F46" t="n">
-        <v>1187.9962</v>
+        <v>35435.8488</v>
       </c>
       <c r="G46" t="n">
-        <v>27.58333333333335</v>
+        <v>27.57666666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C47" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D47" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E47" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F47" t="n">
-        <v>2097.3199</v>
+        <v>1187.9962</v>
       </c>
       <c r="G47" t="n">
-        <v>27.59666666666668</v>
+        <v>27.58333333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>27.7</v>
       </c>
       <c r="C48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E48" t="n">
         <v>27.7</v>
       </c>
       <c r="F48" t="n">
-        <v>1740.831</v>
+        <v>2097.3199</v>
       </c>
       <c r="G48" t="n">
-        <v>27.60666666666668</v>
+        <v>27.59666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E49" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F49" t="n">
-        <v>22484.7841</v>
+        <v>1740.831</v>
       </c>
       <c r="G49" t="n">
-        <v>27.61833333333334</v>
+        <v>27.60666666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>27.6</v>
       </c>
       <c r="F50" t="n">
-        <v>66.033</v>
+        <v>22484.7841</v>
       </c>
       <c r="G50" t="n">
-        <v>27.62500000000001</v>
+        <v>27.61833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>27.6</v>
       </c>
       <c r="F51" t="n">
-        <v>1683.7484</v>
+        <v>66.033</v>
       </c>
       <c r="G51" t="n">
-        <v>27.63666666666667</v>
+        <v>27.62500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E52" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F52" t="n">
-        <v>9206.306</v>
+        <v>1683.7484</v>
       </c>
       <c r="G52" t="n">
-        <v>27.65</v>
+        <v>27.63666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>27.5</v>
       </c>
       <c r="F53" t="n">
-        <v>12225.1675</v>
+        <v>9206.306</v>
       </c>
       <c r="G53" t="n">
-        <v>27.66166666666667</v>
+        <v>27.65</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>27.5</v>
       </c>
       <c r="F54" t="n">
-        <v>14670.6901</v>
+        <v>12225.1675</v>
       </c>
       <c r="G54" t="n">
-        <v>27.67333333333334</v>
+        <v>27.66166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>27.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D55" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E55" t="n">
         <v>27.5</v>
       </c>
       <c r="F55" t="n">
-        <v>6168.6429</v>
+        <v>14670.6901</v>
       </c>
       <c r="G55" t="n">
-        <v>27.68</v>
+        <v>27.67333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C56" t="n">
         <v>27.6</v>
@@ -2332,13 +2332,13 @@
         <v>27.6</v>
       </c>
       <c r="E56" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F56" t="n">
-        <v>30600</v>
+        <v>6168.6429</v>
       </c>
       <c r="G56" t="n">
-        <v>27.685</v>
+        <v>27.68</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>27.6</v>
       </c>
       <c r="E57" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F57" t="n">
-        <v>800</v>
+        <v>30600</v>
       </c>
       <c r="G57" t="n">
-        <v>27.68833333333333</v>
+        <v>27.685</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C58" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D58" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E58" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F58" t="n">
-        <v>71033.0223</v>
+        <v>800</v>
       </c>
       <c r="G58" t="n">
-        <v>27.69</v>
+        <v>27.68833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         <v>27.7</v>
       </c>
       <c r="E59" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F59" t="n">
-        <v>13820.9662</v>
+        <v>71033.0223</v>
       </c>
       <c r="G59" t="n">
         <v>27.69</v>
@@ -2463,19 +2463,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C60" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D60" t="n">
         <v>27.7</v>
       </c>
       <c r="E60" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F60" t="n">
-        <v>15049.7482</v>
+        <v>13820.9662</v>
       </c>
       <c r="G60" t="n">
         <v>27.69</v>
@@ -2507,23 +2507,29 @@
         <v>27.7</v>
       </c>
       <c r="E61" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F61" t="n">
-        <v>821.5399</v>
+        <v>15049.7482</v>
       </c>
       <c r="G61" t="n">
-        <v>27.68833333333333</v>
+        <v>27.69</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>27.5</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,19 +2539,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C62" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D62" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E62" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1627.3504</v>
+        <v>821.5399</v>
       </c>
       <c r="G62" t="n">
         <v>27.68833333333333</v>
@@ -2558,7 +2564,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2578,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C63" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D63" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F63" t="n">
-        <v>789.3821</v>
+        <v>1627.3504</v>
       </c>
       <c r="G63" t="n">
-        <v>27.69166666666666</v>
+        <v>27.68833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2603,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2620,19 @@
         <v>27.6</v>
       </c>
       <c r="C64" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D64" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E64" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1576.1714</v>
+        <v>789.3821</v>
       </c>
       <c r="G64" t="n">
-        <v>27.69833333333333</v>
+        <v>27.69166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2642,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2659,19 @@
         <v>27.6</v>
       </c>
       <c r="C65" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D65" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E65" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F65" t="n">
-        <v>5016.0507</v>
+        <v>1576.1714</v>
       </c>
       <c r="G65" t="n">
-        <v>27.69999999999999</v>
+        <v>27.69833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2681,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,7 +2695,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C66" t="n">
         <v>27.6</v>
@@ -2682,13 +2704,13 @@
         <v>27.6</v>
       </c>
       <c r="E66" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F66" t="n">
-        <v>25424.2593</v>
+        <v>5016.0507</v>
       </c>
       <c r="G66" t="n">
-        <v>27.70333333333332</v>
+        <v>27.69999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2720,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2746,10 @@
         <v>27.5</v>
       </c>
       <c r="F67" t="n">
-        <v>3423.9749</v>
+        <v>25424.2593</v>
       </c>
       <c r="G67" t="n">
-        <v>27.69999999999999</v>
+        <v>27.70333333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2759,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2776,19 @@
         <v>27.5</v>
       </c>
       <c r="C68" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D68" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E68" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F68" t="n">
-        <v>118000.6959</v>
+        <v>3423.9749</v>
       </c>
       <c r="G68" t="n">
-        <v>27.68666666666666</v>
+        <v>27.69999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2798,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2812,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C69" t="n">
         <v>27.3</v>
       </c>
-      <c r="C69" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D69" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E69" t="n">
         <v>27.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2564.1025</v>
+        <v>118000.6959</v>
       </c>
       <c r="G69" t="n">
-        <v>27.67999999999999</v>
+        <v>27.68666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2837,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2851,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C70" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D70" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F70" t="n">
-        <v>2554.7445</v>
+        <v>2564.1025</v>
       </c>
       <c r="G70" t="n">
-        <v>27.66833333333333</v>
+        <v>27.67999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2876,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2863,7 +2905,7 @@
         <v>2554.7445</v>
       </c>
       <c r="G71" t="n">
-        <v>27.66166666666666</v>
+        <v>27.66833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2915,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +2941,10 @@
         <v>27.4</v>
       </c>
       <c r="F72" t="n">
-        <v>2383.7226</v>
+        <v>2554.7445</v>
       </c>
       <c r="G72" t="n">
-        <v>27.65499999999999</v>
+        <v>27.66166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2954,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +2980,10 @@
         <v>27.4</v>
       </c>
       <c r="F73" t="n">
-        <v>6161.0466</v>
+        <v>2383.7226</v>
       </c>
       <c r="G73" t="n">
-        <v>27.645</v>
+        <v>27.65499999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +2993,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3019,10 @@
         <v>27.4</v>
       </c>
       <c r="F74" t="n">
-        <v>4744.9627</v>
+        <v>6161.0466</v>
       </c>
       <c r="G74" t="n">
-        <v>27.64166666666667</v>
+        <v>27.645</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3032,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3046,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>4744.9627</v>
       </c>
       <c r="G75" t="n">
-        <v>27.64</v>
+        <v>27.64166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3071,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3085,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>30469.8922</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>27.635</v>
+        <v>27.64</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3110,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3136,10 @@
         <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>778.2788</v>
+        <v>30469.8922</v>
       </c>
       <c r="G77" t="n">
-        <v>27.63</v>
+        <v>27.635</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3149,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3163,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E78" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F78" t="n">
-        <v>2564.1025</v>
+        <v>778.2788</v>
       </c>
       <c r="G78" t="n">
-        <v>27.62166666666667</v>
+        <v>27.63</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3188,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3214,10 @@
         <v>27.3</v>
       </c>
       <c r="F79" t="n">
-        <v>7692.3075</v>
+        <v>2564.1025</v>
       </c>
       <c r="G79" t="n">
-        <v>27.61</v>
+        <v>27.62166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3227,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3253,10 @@
         <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>13130.8195</v>
+        <v>7692.3075</v>
       </c>
       <c r="G80" t="n">
-        <v>27.60333333333333</v>
+        <v>27.61</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3266,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3280,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C81" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D81" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E81" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F81" t="n">
-        <v>63296.2529</v>
+        <v>13130.8195</v>
       </c>
       <c r="G81" t="n">
-        <v>27.595</v>
+        <v>27.60333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3305,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3322,19 @@
         <v>27.2</v>
       </c>
       <c r="C82" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D82" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E82" t="n">
         <v>27.1</v>
       </c>
       <c r="F82" t="n">
-        <v>18886.2885</v>
+        <v>63296.2529</v>
       </c>
       <c r="G82" t="n">
-        <v>27.59166666666666</v>
+        <v>27.595</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3344,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3277,27 +3367,27 @@
         <v>27.2</v>
       </c>
       <c r="E83" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F83" t="n">
-        <v>7720.5882</v>
+        <v>18886.2885</v>
       </c>
       <c r="G83" t="n">
-        <v>27.58166666666666</v>
+        <v>27.59166666666666</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K83" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3319,26 +3409,22 @@
         <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>122612.6149</v>
+        <v>7720.5882</v>
       </c>
       <c r="G84" t="n">
-        <v>27.57166666666667</v>
+        <v>27.58166666666666</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K84" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3350,38 +3436,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E85" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F85" t="n">
-        <v>1720</v>
+        <v>122612.6149</v>
       </c>
       <c r="G85" t="n">
-        <v>27.565</v>
+        <v>27.57166666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3405,24 +3487,24 @@
         <v>27.3</v>
       </c>
       <c r="F86" t="n">
-        <v>66</v>
+        <v>1720</v>
       </c>
       <c r="G86" t="n">
-        <v>27.55833333333333</v>
+        <v>27.565</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K86" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3444,10 +3526,10 @@
         <v>27.3</v>
       </c>
       <c r="F87" t="n">
-        <v>171.1812</v>
+        <v>66</v>
       </c>
       <c r="G87" t="n">
-        <v>27.54833333333333</v>
+        <v>27.55833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3456,12 +3538,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3473,22 +3553,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>171.1812</v>
       </c>
       <c r="G88" t="n">
-        <v>27.54333333333333</v>
+        <v>27.54833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3497,12 +3577,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3526,10 +3604,10 @@
         <v>27.6</v>
       </c>
       <c r="F89" t="n">
-        <v>1326.6757</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>27.54499999999999</v>
+        <v>27.54333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3539,7 +3617,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3549,22 +3631,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E90" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F90" t="n">
-        <v>27131.8005</v>
+        <v>1326.6757</v>
       </c>
       <c r="G90" t="n">
-        <v>27.54333333333333</v>
+        <v>27.54499999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3574,7 +3656,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +3670,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C91" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D91" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E91" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F91" t="n">
-        <v>33100</v>
+        <v>27131.8005</v>
       </c>
       <c r="G91" t="n">
-        <v>27.54666666666666</v>
+        <v>27.54333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3609,7 +3695,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3622,19 +3712,19 @@
         <v>27.6</v>
       </c>
       <c r="C92" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D92" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E92" t="n">
         <v>27.6</v>
       </c>
       <c r="F92" t="n">
-        <v>2153.5378</v>
+        <v>33100</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54499999999999</v>
+        <v>27.54666666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3644,7 +3734,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C93" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D93" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E93" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F93" t="n">
-        <v>12200</v>
+        <v>2153.5378</v>
       </c>
       <c r="G93" t="n">
-        <v>27.54333333333332</v>
+        <v>27.54499999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3679,7 +3773,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3787,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C94" t="n">
         <v>27.8</v>
@@ -3698,13 +3796,13 @@
         <v>27.8</v>
       </c>
       <c r="E94" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F94" t="n">
-        <v>15700</v>
+        <v>12200</v>
       </c>
       <c r="G94" t="n">
-        <v>27.54166666666665</v>
+        <v>27.54333333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3714,7 +3812,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3736,7 +3838,7 @@
         <v>27.8</v>
       </c>
       <c r="F95" t="n">
-        <v>5494.0511</v>
+        <v>15700</v>
       </c>
       <c r="G95" t="n">
         <v>27.54166666666665</v>
@@ -3749,7 +3851,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3771,10 +3877,10 @@
         <v>27.8</v>
       </c>
       <c r="F96" t="n">
-        <v>4206.4563</v>
+        <v>5494.0511</v>
       </c>
       <c r="G96" t="n">
-        <v>27.54333333333332</v>
+        <v>27.54166666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3784,7 +3890,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3794,22 +3904,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E97" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F97" t="n">
-        <v>64000</v>
+        <v>4206.4563</v>
       </c>
       <c r="G97" t="n">
-        <v>27.54166666666665</v>
+        <v>27.54333333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3819,7 +3929,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3841,10 +3955,10 @@
         <v>27.6</v>
       </c>
       <c r="F98" t="n">
-        <v>600</v>
+        <v>64000</v>
       </c>
       <c r="G98" t="n">
-        <v>27.53666666666664</v>
+        <v>27.54166666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3854,7 +3968,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3864,19 +3982,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E99" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G99" t="n">
         <v>27.53666666666664</v>
@@ -3889,7 +4007,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3902,19 +4024,19 @@
         <v>27.7</v>
       </c>
       <c r="C100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D100" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E100" t="n">
         <v>27.7</v>
       </c>
       <c r="F100" t="n">
-        <v>14440.5425</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>27.53833333333331</v>
+        <v>27.53666666666664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3924,7 +4046,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3934,7 +4060,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C101" t="n">
         <v>27.8</v>
@@ -3943,13 +4069,13 @@
         <v>27.8</v>
       </c>
       <c r="E101" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F101" t="n">
-        <v>590</v>
+        <v>14440.5425</v>
       </c>
       <c r="G101" t="n">
-        <v>27.54166666666664</v>
+        <v>27.53833333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3959,7 +4085,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3969,22 +4099,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E102" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F102" t="n">
-        <v>5309.8926</v>
+        <v>590</v>
       </c>
       <c r="G102" t="n">
-        <v>27.54833333333331</v>
+        <v>27.54166666666664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3994,7 +4124,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4016,10 +4150,10 @@
         <v>27.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1357.8964</v>
+        <v>5309.8926</v>
       </c>
       <c r="G103" t="n">
-        <v>27.55499999999998</v>
+        <v>27.54833333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4029,7 +4163,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4039,22 +4177,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E104" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F104" t="n">
-        <v>5410.016</v>
+        <v>1357.8964</v>
       </c>
       <c r="G104" t="n">
-        <v>27.55666666666665</v>
+        <v>27.55499999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4064,7 +4202,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4216,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E105" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F105" t="n">
-        <v>2508</v>
+        <v>5410.016</v>
       </c>
       <c r="G105" t="n">
-        <v>27.55999999999998</v>
+        <v>27.55666666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4099,7 +4241,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +4255,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E106" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F106" t="n">
-        <v>1857.1259</v>
+        <v>2508</v>
       </c>
       <c r="G106" t="n">
-        <v>27.56333333333331</v>
+        <v>27.55999999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4134,7 +4280,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4156,7 +4306,7 @@
         <v>27.8</v>
       </c>
       <c r="F107" t="n">
-        <v>881.6236</v>
+        <v>1857.1259</v>
       </c>
       <c r="G107" t="n">
         <v>27.56333333333331</v>
@@ -4169,7 +4319,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4191,10 +4345,10 @@
         <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1336.3907</v>
+        <v>881.6236</v>
       </c>
       <c r="G108" t="n">
-        <v>27.56499999999998</v>
+        <v>27.56333333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4204,7 +4358,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4372,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E109" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F109" t="n">
-        <v>36998.8612</v>
+        <v>1336.3907</v>
       </c>
       <c r="G109" t="n">
-        <v>27.56999999999998</v>
+        <v>27.56499999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4239,7 +4397,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4249,7 +4411,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C110" t="n">
         <v>27.9</v>
@@ -4258,13 +4420,13 @@
         <v>27.9</v>
       </c>
       <c r="E110" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F110" t="n">
-        <v>5101.5588</v>
+        <v>36998.8612</v>
       </c>
       <c r="G110" t="n">
-        <v>27.57499999999999</v>
+        <v>27.56999999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4274,7 +4436,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4284,7 +4450,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C111" t="n">
         <v>27.9</v>
@@ -4293,13 +4459,13 @@
         <v>27.9</v>
       </c>
       <c r="E111" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F111" t="n">
-        <v>6055.7674</v>
+        <v>5101.5588</v>
       </c>
       <c r="G111" t="n">
-        <v>27.57999999999999</v>
+        <v>27.57499999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4309,7 +4475,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4331,10 +4501,10 @@
         <v>27.9</v>
       </c>
       <c r="F112" t="n">
-        <v>6234.0715</v>
+        <v>6055.7674</v>
       </c>
       <c r="G112" t="n">
-        <v>27.58666666666666</v>
+        <v>27.57999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4344,7 +4514,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4366,10 +4540,10 @@
         <v>27.9</v>
       </c>
       <c r="F113" t="n">
-        <v>30436.9955</v>
+        <v>6234.0715</v>
       </c>
       <c r="G113" t="n">
-        <v>27.59333333333332</v>
+        <v>27.58666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4379,7 +4553,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4389,22 +4567,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E114" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F114" t="n">
-        <v>36101.083</v>
+        <v>30436.9955</v>
       </c>
       <c r="G114" t="n">
-        <v>27.59666666666666</v>
+        <v>27.59333333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4414,7 +4592,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4436,10 +4618,10 @@
         <v>27.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2479.9083</v>
+        <v>36101.083</v>
       </c>
       <c r="G115" t="n">
-        <v>27.59833333333333</v>
+        <v>27.59666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4449,7 +4631,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4468,13 +4654,13 @@
         <v>27.7</v>
       </c>
       <c r="E116" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F116" t="n">
-        <v>51011.7929</v>
+        <v>2479.9083</v>
       </c>
       <c r="G116" t="n">
-        <v>27.6</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4484,7 +4670,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4494,22 +4684,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C117" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D117" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E117" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F117" t="n">
-        <v>39495.8578</v>
+        <v>51011.7929</v>
       </c>
       <c r="G117" t="n">
-        <v>27.59833333333333</v>
+        <v>27.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4519,7 +4709,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4541,7 +4735,7 @@
         <v>27.5</v>
       </c>
       <c r="F118" t="n">
-        <v>76331.2182</v>
+        <v>39495.8578</v>
       </c>
       <c r="G118" t="n">
         <v>27.59833333333333</v>
@@ -4554,7 +4748,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4762,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F119" t="n">
-        <v>140.543</v>
+        <v>76331.2182</v>
       </c>
       <c r="G119" t="n">
-        <v>27.60166666666667</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4589,7 +4787,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4599,22 +4801,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C120" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D120" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1612.7442</v>
+        <v>140.543</v>
       </c>
       <c r="G120" t="n">
-        <v>27.605</v>
+        <v>27.60166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4624,7 +4826,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4634,7 +4840,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C121" t="n">
         <v>27.9</v>
@@ -4643,13 +4849,13 @@
         <v>27.9</v>
       </c>
       <c r="E121" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F121" t="n">
-        <v>4366.7447</v>
+        <v>1612.7442</v>
       </c>
       <c r="G121" t="n">
-        <v>27.60833333333333</v>
+        <v>27.605</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4659,7 +4865,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4669,7 +4879,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C122" t="n">
         <v>27.9</v>
@@ -4678,13 +4888,13 @@
         <v>27.9</v>
       </c>
       <c r="E122" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F122" t="n">
-        <v>42397.2661</v>
+        <v>4366.7447</v>
       </c>
       <c r="G122" t="n">
-        <v>27.61</v>
+        <v>27.60833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4694,7 +4904,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4704,7 +4918,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C123" t="n">
         <v>27.9</v>
@@ -4713,13 +4927,13 @@
         <v>27.9</v>
       </c>
       <c r="E123" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F123" t="n">
-        <v>28500</v>
+        <v>42397.2661</v>
       </c>
       <c r="G123" t="n">
-        <v>27.61500000000001</v>
+        <v>27.61</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4729,7 +4943,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4751,10 +4969,10 @@
         <v>27.9</v>
       </c>
       <c r="F124" t="n">
-        <v>14102.4618</v>
+        <v>28500</v>
       </c>
       <c r="G124" t="n">
-        <v>27.61666666666667</v>
+        <v>27.61500000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4764,8 +4982,51 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14102.4618</v>
+      </c>
+      <c r="G125" t="n">
+        <v>27.61666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C2" t="n">
         <v>27.6</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E2" t="n">
         <v>27.6</v>
       </c>
       <c r="F2" t="n">
-        <v>3969</v>
+        <v>7341.6326</v>
       </c>
       <c r="G2" t="n">
-        <v>218196.2088999999</v>
+        <v>498775.1423999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2973.7222</v>
+        <v>16252.8676</v>
       </c>
       <c r="G3" t="n">
-        <v>218196.2088999999</v>
+        <v>515028.0099999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F4" t="n">
-        <v>22403.0322</v>
+        <v>7391.4207</v>
       </c>
       <c r="G4" t="n">
-        <v>218196.2088999999</v>
+        <v>515028.0099999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2468.1387</v>
+        <v>29888.0571</v>
       </c>
       <c r="G5" t="n">
-        <v>218196.2088999999</v>
+        <v>515028.0099999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D6" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E6" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F6" t="n">
-        <v>683.147</v>
+        <v>727.5217</v>
       </c>
       <c r="G6" t="n">
-        <v>218879.3558999999</v>
+        <v>515755.5316999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -611,25 +621,25 @@
         <v>27.7</v>
       </c>
       <c r="C7" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
         <v>27.7</v>
       </c>
       <c r="F7" t="n">
-        <v>26046.7509</v>
+        <v>2010</v>
       </c>
       <c r="G7" t="n">
-        <v>218879.3558999999</v>
+        <v>517765.5316999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>26630.3571</v>
       </c>
       <c r="G8" t="n">
-        <v>218889.3558999999</v>
+        <v>491135.1745999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D9" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E9" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F9" t="n">
-        <v>1725.1876</v>
+        <v>463.1661</v>
       </c>
       <c r="G9" t="n">
-        <v>217164.1682999999</v>
+        <v>490672.0084999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C10" t="n">
         <v>27.4</v>
       </c>
       <c r="D10" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>27.4</v>
       </c>
       <c r="F10" t="n">
-        <v>757.0933</v>
+        <v>25314.7857</v>
       </c>
       <c r="G10" t="n">
-        <v>216407.0749999999</v>
+        <v>465357.2227999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C11" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D11" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E11" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F11" t="n">
-        <v>927.3455</v>
+        <v>946.6679</v>
       </c>
       <c r="G11" t="n">
-        <v>217334.4204999999</v>
+        <v>466303.8906999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C12" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D12" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F12" t="n">
-        <v>3385.9112</v>
+        <v>2306.8307</v>
       </c>
       <c r="G12" t="n">
-        <v>213948.5092999999</v>
+        <v>466303.8906999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D13" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E13" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F13" t="n">
-        <v>7080.291</v>
+        <v>22929.802</v>
       </c>
       <c r="G13" t="n">
-        <v>213948.5092999999</v>
+        <v>443374.0886999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D14" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>17054.1588</v>
       </c>
       <c r="G14" t="n">
-        <v>213848.5092999999</v>
+        <v>443374.0886999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C15" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D15" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E15" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>213848.5092999999</v>
+        <v>443385.0886999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D16" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>7517.0343</v>
       </c>
       <c r="G16" t="n">
-        <v>213848.5092999999</v>
+        <v>443385.0886999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="D17" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="F17" t="n">
-        <v>6059.6223</v>
+        <v>36491.2479</v>
       </c>
       <c r="G17" t="n">
-        <v>207788.8869999999</v>
+        <v>406893.8407999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="C18" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="D18" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="E18" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="F18" t="n">
-        <v>2280.904</v>
+        <v>1001.3174</v>
       </c>
       <c r="G18" t="n">
-        <v>210069.7909999999</v>
+        <v>407895.1581999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="C19" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D19" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E19" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F19" t="n">
-        <v>594</v>
+        <v>9400</v>
       </c>
       <c r="G19" t="n">
-        <v>209475.7909999999</v>
+        <v>398495.1581999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="C20" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D20" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="F20" t="n">
-        <v>12906.5691</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>222382.3600999999</v>
+        <v>398505.1581999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C21" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="D21" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="E21" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F21" t="n">
-        <v>5432.1454</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>216950.2146999999</v>
+        <v>408505.1581999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>27.9</v>
       </c>
       <c r="C22" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>27.9</v>
       </c>
       <c r="E22" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="F22" t="n">
-        <v>23700</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="n">
-        <v>193250.2146999999</v>
+        <v>408505.1581999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="C23" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="D23" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="E23" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F23" t="n">
-        <v>8497.079100000001</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>201747.2937999999</v>
+        <v>408495.1581999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="C24" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="D24" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="E24" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="F24" t="n">
-        <v>9237</v>
+        <v>979.8411</v>
       </c>
       <c r="G24" t="n">
-        <v>201747.2937999999</v>
+        <v>407515.3170999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C25" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D25" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E25" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F25" t="n">
-        <v>12334</v>
+        <v>684.7645</v>
       </c>
       <c r="G25" t="n">
-        <v>214081.2937999999</v>
+        <v>407515.3170999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C26" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="D26" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E26" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F26" t="n">
-        <v>2123.0945</v>
+        <v>14755.1254</v>
       </c>
       <c r="G26" t="n">
-        <v>216204.3882999999</v>
+        <v>422270.4424999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C27" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E27" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F27" t="n">
-        <v>12000</v>
+        <v>39077.8479</v>
       </c>
       <c r="G27" t="n">
-        <v>228204.3882999999</v>
+        <v>383192.5945999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C28" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D28" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E28" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F28" t="n">
-        <v>503.7718</v>
+        <v>4425.9079</v>
       </c>
       <c r="G28" t="n">
-        <v>228204.3882999999</v>
+        <v>383192.5945999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C29" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D29" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E29" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F29" t="n">
-        <v>4482.7636</v>
+        <v>1802.8835</v>
       </c>
       <c r="G29" t="n">
-        <v>232687.1518999999</v>
+        <v>381389.7110999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C30" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D30" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E30" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F30" t="n">
-        <v>11.0108</v>
+        <v>11629.7375</v>
       </c>
       <c r="G30" t="n">
-        <v>232698.1626999999</v>
+        <v>369759.9735999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C31" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D31" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E31" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F31" t="n">
-        <v>3603.2338</v>
+        <v>9361.179400000001</v>
       </c>
       <c r="G31" t="n">
-        <v>236301.3964999999</v>
+        <v>369759.9735999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C32" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D32" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E32" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F32" t="n">
-        <v>22484.7841</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>236301.3964999999</v>
+        <v>369859.9735999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C33" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D33" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E33" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>35435.8488</v>
       </c>
       <c r="G33" t="n">
-        <v>236291.3964999999</v>
+        <v>369859.9735999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C34" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D34" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E34" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F34" t="n">
-        <v>20213.6522</v>
+        <v>1187.9962</v>
       </c>
       <c r="G34" t="n">
-        <v>236291.3964999999</v>
+        <v>368671.9773999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C35" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D35" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E35" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F35" t="n">
-        <v>132</v>
+        <v>2097.3199</v>
       </c>
       <c r="G35" t="n">
-        <v>236423.3964999999</v>
+        <v>370769.2972999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C36" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D36" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E36" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F36" t="n">
-        <v>19897.2566</v>
+        <v>1740.831</v>
       </c>
       <c r="G36" t="n">
-        <v>216526.1398999999</v>
+        <v>369028.4662999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C37" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D37" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E37" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F37" t="n">
-        <v>162525.2828</v>
+        <v>22484.7841</v>
       </c>
       <c r="G37" t="n">
-        <v>379051.4226999999</v>
+        <v>346543.6821999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="C38" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D38" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="F38" t="n">
-        <v>121618.2011</v>
+        <v>66.033</v>
       </c>
       <c r="G38" t="n">
-        <v>500669.6237999999</v>
+        <v>346543.6821999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D39" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E39" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F39" t="n">
-        <v>49973.8583</v>
+        <v>1683.7484</v>
       </c>
       <c r="G39" t="n">
-        <v>450695.7654999999</v>
+        <v>346543.6821999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C40" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="D40" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E40" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F40" t="n">
-        <v>55721.1965</v>
+        <v>9206.306</v>
       </c>
       <c r="G40" t="n">
-        <v>506416.9619999999</v>
+        <v>337337.3761999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C41" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D41" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E41" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F41" t="n">
-        <v>310.187</v>
+        <v>12225.1675</v>
       </c>
       <c r="G41" t="n">
-        <v>506106.7749999999</v>
+        <v>337337.3761999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C42" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D42" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E42" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F42" t="n">
-        <v>3882.4029</v>
+        <v>14670.6901</v>
       </c>
       <c r="G42" t="n">
-        <v>506106.7749999999</v>
+        <v>337337.3761999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D43" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E43" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>6168.6429</v>
       </c>
       <c r="G43" t="n">
-        <v>506116.7749999999</v>
+        <v>343506.0190999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C44" t="n">
         <v>27.6</v>
       </c>
       <c r="D44" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E44" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F44" t="n">
-        <v>7341.6326</v>
+        <v>30600</v>
       </c>
       <c r="G44" t="n">
-        <v>498775.1423999999</v>
+        <v>343506.0190999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C45" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D45" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E45" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F45" t="n">
-        <v>16252.8676</v>
+        <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>515028.0099999999</v>
+        <v>343506.0190999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C46" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E46" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F46" t="n">
-        <v>7391.4207</v>
+        <v>71033.0223</v>
       </c>
       <c r="G46" t="n">
-        <v>515028.0099999999</v>
+        <v>272472.9967999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C47" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E47" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F47" t="n">
-        <v>29888.0571</v>
+        <v>13820.9662</v>
       </c>
       <c r="G47" t="n">
-        <v>515028.0099999999</v>
+        <v>272472.9967999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C48" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D48" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E48" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F48" t="n">
-        <v>727.5217</v>
+        <v>15049.7482</v>
       </c>
       <c r="G48" t="n">
-        <v>515755.5316999999</v>
+        <v>287522.7449999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="D49" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E49" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2010</v>
+        <v>821.5399</v>
       </c>
       <c r="G49" t="n">
-        <v>517765.5316999999</v>
+        <v>287522.7449999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C50" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D50" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E50" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F50" t="n">
-        <v>26630.3571</v>
+        <v>1627.3504</v>
       </c>
       <c r="G50" t="n">
-        <v>491135.1745999999</v>
+        <v>289150.0953999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2160,10 +2214,10 @@
         <v>27.6</v>
       </c>
       <c r="F51" t="n">
-        <v>463.1661</v>
+        <v>789.3821</v>
       </c>
       <c r="G51" t="n">
-        <v>490672.0084999999</v>
+        <v>288360.7132999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C52" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E52" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F52" t="n">
-        <v>25314.7857</v>
+        <v>1576.1714</v>
       </c>
       <c r="G52" t="n">
-        <v>465357.2227999999</v>
+        <v>289936.8846999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C53" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D53" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E53" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F53" t="n">
-        <v>946.6679</v>
+        <v>5016.0507</v>
       </c>
       <c r="G53" t="n">
-        <v>466303.8906999999</v>
+        <v>284920.8339999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C54" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D54" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E54" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2306.8307</v>
+        <v>25424.2593</v>
       </c>
       <c r="G54" t="n">
-        <v>466303.8906999999</v>
+        <v>284920.8339999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D55" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E55" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F55" t="n">
-        <v>22929.802</v>
+        <v>3423.9749</v>
       </c>
       <c r="G55" t="n">
-        <v>443374.0886999998</v>
+        <v>284920.8339999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C56" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D56" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E56" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F56" t="n">
-        <v>17054.1588</v>
+        <v>118000.6959</v>
       </c>
       <c r="G56" t="n">
-        <v>443374.0886999998</v>
+        <v>166920.1380999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C57" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D57" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E57" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>2564.1025</v>
       </c>
       <c r="G57" t="n">
-        <v>443385.0886999998</v>
+        <v>169484.2405999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C58" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D58" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E58" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F58" t="n">
-        <v>7517.0343</v>
+        <v>2554.7445</v>
       </c>
       <c r="G58" t="n">
-        <v>443385.0886999998</v>
+        <v>166929.4960999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C59" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D59" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E59" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F59" t="n">
-        <v>36491.2479</v>
+        <v>2554.7445</v>
       </c>
       <c r="G59" t="n">
-        <v>406893.8407999998</v>
+        <v>166929.4960999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C60" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D60" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E60" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F60" t="n">
-        <v>1001.3174</v>
+        <v>2383.7226</v>
       </c>
       <c r="G60" t="n">
-        <v>407895.1581999998</v>
+        <v>166929.4960999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C61" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D61" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E61" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F61" t="n">
-        <v>9400</v>
+        <v>6161.0466</v>
       </c>
       <c r="G61" t="n">
-        <v>398495.1581999998</v>
+        <v>166929.4960999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C62" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D62" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E62" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>4744.9627</v>
       </c>
       <c r="G62" t="n">
-        <v>398505.1581999998</v>
+        <v>166929.4960999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C63" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D63" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E63" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>408505.1581999998</v>
+        <v>166940.4960999998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C64" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D64" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E64" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>30469.8922</v>
       </c>
       <c r="G64" t="n">
-        <v>408505.1581999998</v>
+        <v>136470.6038999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C65" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D65" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E65" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>778.2788</v>
       </c>
       <c r="G65" t="n">
-        <v>408495.1581999998</v>
+        <v>136470.6038999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C66" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D66" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E66" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F66" t="n">
-        <v>979.8411</v>
+        <v>2564.1025</v>
       </c>
       <c r="G66" t="n">
-        <v>407515.3170999998</v>
+        <v>133906.5013999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C67" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D67" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E67" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F67" t="n">
-        <v>684.7645</v>
+        <v>7692.3075</v>
       </c>
       <c r="G67" t="n">
-        <v>407515.3170999998</v>
+        <v>133906.5013999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C68" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="D68" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E68" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="F68" t="n">
-        <v>14755.1254</v>
+        <v>13130.8195</v>
       </c>
       <c r="G68" t="n">
-        <v>422270.4424999998</v>
+        <v>133906.5013999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="C69" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D69" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E69" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F69" t="n">
-        <v>39077.8479</v>
+        <v>63296.2529</v>
       </c>
       <c r="G69" t="n">
-        <v>383192.5945999998</v>
+        <v>70610.24849999981</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C70" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D70" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E70" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F70" t="n">
-        <v>4425.9079</v>
+        <v>18886.2885</v>
       </c>
       <c r="G70" t="n">
-        <v>383192.5945999998</v>
+        <v>89496.53699999981</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,181 +2915,219 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C71" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D71" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E71" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="F71" t="n">
-        <v>1802.8835</v>
+        <v>7720.5882</v>
       </c>
       <c r="G71" t="n">
-        <v>381389.7110999998</v>
+        <v>89496.53699999981</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>27.2</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C72" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D72" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E72" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F72" t="n">
-        <v>11629.7375</v>
+        <v>122612.6149</v>
       </c>
       <c r="G72" t="n">
-        <v>369759.9735999999</v>
+        <v>89496.53699999981</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F73" t="n">
-        <v>9361.179400000001</v>
+        <v>1720</v>
       </c>
       <c r="G73" t="n">
-        <v>369759.9735999999</v>
+        <v>91216.53699999981</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C74" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D74" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E74" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G74" t="n">
-        <v>369859.9735999999</v>
+        <v>91216.53699999981</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C75" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D75" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F75" t="n">
-        <v>35435.8488</v>
+        <v>171.1812</v>
       </c>
       <c r="G75" t="n">
-        <v>369859.9735999999</v>
+        <v>91216.53699999981</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3035,45 +3146,54 @@
         <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>1187.9962</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>368671.9773999999</v>
+        <v>91227.53699999981</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C77" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D77" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E77" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F77" t="n">
-        <v>2097.3199</v>
+        <v>1326.6757</v>
       </c>
       <c r="G77" t="n">
-        <v>370769.2972999999</v>
+        <v>91227.53699999981</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3207,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C78" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D78" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E78" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1740.831</v>
+        <v>27131.8005</v>
       </c>
       <c r="G78" t="n">
-        <v>369028.4662999999</v>
+        <v>64095.73649999981</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3243,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,19 +3253,19 @@
         <v>27.6</v>
       </c>
       <c r="C79" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D79" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E79" t="n">
         <v>27.6</v>
       </c>
       <c r="F79" t="n">
-        <v>22484.7841</v>
+        <v>33100</v>
       </c>
       <c r="G79" t="n">
-        <v>346543.6821999999</v>
+        <v>97195.73649999981</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3279,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3175,10 +3298,10 @@
         <v>27.6</v>
       </c>
       <c r="F80" t="n">
-        <v>66.033</v>
+        <v>2153.5378</v>
       </c>
       <c r="G80" t="n">
-        <v>346543.6821999999</v>
+        <v>95042.1986999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3315,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C81" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D81" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E81" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F81" t="n">
-        <v>1683.7484</v>
+        <v>12200</v>
       </c>
       <c r="G81" t="n">
-        <v>346543.6821999999</v>
+        <v>107242.1986999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3351,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C82" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D82" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E82" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F82" t="n">
-        <v>9206.306</v>
+        <v>15700</v>
       </c>
       <c r="G82" t="n">
-        <v>337337.3761999999</v>
+        <v>107242.1986999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3387,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C83" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D83" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E83" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F83" t="n">
-        <v>12225.1675</v>
+        <v>5494.0511</v>
       </c>
       <c r="G83" t="n">
-        <v>337337.3761999999</v>
+        <v>107242.1986999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3423,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C84" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D84" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E84" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F84" t="n">
-        <v>14670.6901</v>
+        <v>4206.4563</v>
       </c>
       <c r="G84" t="n">
-        <v>337337.3761999999</v>
+        <v>107242.1986999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,13 +3459,14 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C85" t="n">
         <v>27.6</v>
@@ -3347,13 +3475,13 @@
         <v>27.6</v>
       </c>
       <c r="E85" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F85" t="n">
-        <v>6168.6429</v>
+        <v>64000</v>
       </c>
       <c r="G85" t="n">
-        <v>343506.0190999999</v>
+        <v>43242.1986999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3495,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3382,13 +3511,13 @@
         <v>27.6</v>
       </c>
       <c r="E86" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F86" t="n">
-        <v>30600</v>
+        <v>600</v>
       </c>
       <c r="G86" t="n">
-        <v>343506.0190999999</v>
+        <v>43242.1986999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3531,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C87" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D87" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E87" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F87" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>343506.0190999999</v>
+        <v>43252.1986999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,6 +3567,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3446,19 +3577,19 @@
         <v>27.7</v>
       </c>
       <c r="C88" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D88" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E88" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F88" t="n">
-        <v>71033.0223</v>
+        <v>14440.5425</v>
       </c>
       <c r="G88" t="n">
-        <v>272472.9967999998</v>
+        <v>57692.7411999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3603,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C89" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D89" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E89" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F89" t="n">
-        <v>13820.9662</v>
+        <v>590</v>
       </c>
       <c r="G89" t="n">
-        <v>272472.9967999998</v>
+        <v>57692.7411999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3639,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="C90" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D90" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E90" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="F90" t="n">
-        <v>15049.7482</v>
+        <v>5309.8926</v>
       </c>
       <c r="G90" t="n">
-        <v>287522.7449999998</v>
+        <v>63002.6337999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3675,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="C91" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D91" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E91" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F91" t="n">
-        <v>821.5399</v>
+        <v>1357.8964</v>
       </c>
       <c r="G91" t="n">
-        <v>287522.7449999998</v>
+        <v>63002.6337999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,13 +3711,14 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C92" t="n">
         <v>27.8</v>
@@ -3592,13 +3727,13 @@
         <v>27.8</v>
       </c>
       <c r="E92" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F92" t="n">
-        <v>1627.3504</v>
+        <v>5410.016</v>
       </c>
       <c r="G92" t="n">
-        <v>289150.0953999998</v>
+        <v>57592.6177999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3747,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C93" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D93" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E93" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F93" t="n">
-        <v>789.3821</v>
+        <v>2508</v>
       </c>
       <c r="G93" t="n">
-        <v>288360.7132999998</v>
+        <v>60100.6177999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,13 +3783,14 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C94" t="n">
         <v>27.8</v>
@@ -3662,13 +3799,13 @@
         <v>27.8</v>
       </c>
       <c r="E94" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1576.1714</v>
+        <v>1857.1259</v>
       </c>
       <c r="G94" t="n">
-        <v>289936.8846999998</v>
+        <v>58243.4918999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3819,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C95" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D95" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E95" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F95" t="n">
-        <v>5016.0507</v>
+        <v>881.6236</v>
       </c>
       <c r="G95" t="n">
-        <v>284920.8339999998</v>
+        <v>58243.4918999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3855,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C96" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D96" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E96" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F96" t="n">
-        <v>25424.2593</v>
+        <v>1336.3907</v>
       </c>
       <c r="G96" t="n">
-        <v>284920.8339999998</v>
+        <v>58243.4918999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3891,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="C97" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D97" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E97" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F97" t="n">
-        <v>3423.9749</v>
+        <v>36998.8612</v>
       </c>
       <c r="G97" t="n">
-        <v>284920.8339999998</v>
+        <v>95242.3530999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3927,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C98" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="D98" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E98" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F98" t="n">
-        <v>118000.6959</v>
+        <v>5101.5588</v>
       </c>
       <c r="G98" t="n">
-        <v>166920.1380999998</v>
+        <v>95242.3530999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3963,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C99" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D99" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E99" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F99" t="n">
-        <v>2564.1025</v>
+        <v>6055.7674</v>
       </c>
       <c r="G99" t="n">
-        <v>169484.2405999998</v>
+        <v>95242.3530999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3999,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="C100" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="D100" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E100" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="F100" t="n">
-        <v>2554.7445</v>
+        <v>6234.0715</v>
       </c>
       <c r="G100" t="n">
-        <v>166929.4960999998</v>
+        <v>95242.3530999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4035,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="D101" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E101" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="F101" t="n">
-        <v>2554.7445</v>
+        <v>30436.9955</v>
       </c>
       <c r="G101" t="n">
-        <v>166929.4960999998</v>
+        <v>95242.3530999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4071,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C102" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D102" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F102" t="n">
-        <v>2383.7226</v>
+        <v>36101.083</v>
       </c>
       <c r="G102" t="n">
-        <v>166929.4960999998</v>
+        <v>59141.27009999981</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4107,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C103" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D103" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E103" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F103" t="n">
-        <v>6161.0466</v>
+        <v>2479.9083</v>
       </c>
       <c r="G103" t="n">
-        <v>166929.4960999998</v>
+        <v>59141.27009999981</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4143,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C104" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D104" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E104" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F104" t="n">
-        <v>4744.9627</v>
+        <v>51011.7929</v>
       </c>
       <c r="G104" t="n">
-        <v>166929.4960999998</v>
+        <v>59141.27009999981</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4179,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C105" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E105" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>39495.8578</v>
       </c>
       <c r="G105" t="n">
-        <v>166940.4960999998</v>
+        <v>19645.41229999981</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,67 +4215,65 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C106" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D106" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F106" t="n">
-        <v>30469.8922</v>
+        <v>76331.2182</v>
       </c>
       <c r="G106" t="n">
-        <v>136470.6038999998</v>
+        <v>19645.41229999981</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K106" t="n">
-        <v>27.6</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C107" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D107" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E107" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F107" t="n">
-        <v>778.2788</v>
+        <v>140.543</v>
       </c>
       <c r="G107" t="n">
-        <v>136470.6038999998</v>
+        <v>19785.95529999981</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4136,39 +4282,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C108" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="D108" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E108" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>2564.1025</v>
+        <v>1612.7442</v>
       </c>
       <c r="G108" t="n">
-        <v>133906.5013999998</v>
+        <v>21398.69949999981</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4177,39 +4318,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C109" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="D109" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E109" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F109" t="n">
-        <v>7692.3075</v>
+        <v>4366.7447</v>
       </c>
       <c r="G109" t="n">
-        <v>133906.5013999998</v>
+        <v>21398.69949999981</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4223,28 +4359,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C110" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="D110" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E110" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F110" t="n">
-        <v>13130.8195</v>
+        <v>42397.2661</v>
       </c>
       <c r="G110" t="n">
-        <v>133906.5013999998</v>
+        <v>21398.69949999981</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4258,28 +4395,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C111" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="D111" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E111" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="F111" t="n">
-        <v>63296.2529</v>
+        <v>28500</v>
       </c>
       <c r="G111" t="n">
-        <v>70610.24849999981</v>
+        <v>21398.69949999981</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4293,28 +4431,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C112" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D112" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E112" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="F112" t="n">
-        <v>18886.2885</v>
+        <v>14102.4618</v>
       </c>
       <c r="G112" t="n">
-        <v>89496.53699999981</v>
+        <v>21398.69949999981</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4328,358 +4467,317 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C113" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="D113" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="E113" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F113" t="n">
-        <v>7720.5882</v>
+        <v>2580.4892</v>
       </c>
       <c r="G113" t="n">
-        <v>89496.53699999981</v>
+        <v>23979.18869999981</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K113" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C114" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="E114" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F114" t="n">
-        <v>122612.6149</v>
+        <v>68124.35709999999</v>
       </c>
       <c r="G114" t="n">
-        <v>89496.53699999981</v>
+        <v>23979.18869999981</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K114" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C115" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D115" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E115" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F115" t="n">
-        <v>1720</v>
+        <v>66651.61659999999</v>
       </c>
       <c r="G115" t="n">
-        <v>91216.53699999981</v>
+        <v>-42672.42790000018</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K115" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C116" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D116" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E116" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F116" t="n">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="G116" t="n">
-        <v>91216.53699999981</v>
+        <v>-42672.42790000018</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K116" t="n">
-        <v>27.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C117" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D117" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E117" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F117" t="n">
-        <v>171.1812</v>
+        <v>19851.4201</v>
       </c>
       <c r="G117" t="n">
-        <v>91216.53699999981</v>
+        <v>-62523.84800000019</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K117" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C118" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D118" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E118" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F118" t="n">
-        <v>11</v>
+        <v>7034.4752</v>
       </c>
       <c r="G118" t="n">
-        <v>91227.53699999981</v>
+        <v>-55489.37280000019</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K118" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C119" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D119" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E119" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F119" t="n">
-        <v>1326.6757</v>
+        <v>28201.7376</v>
       </c>
       <c r="G119" t="n">
-        <v>91227.53699999981</v>
+        <v>-83691.11040000018</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K119" t="n">
-        <v>27.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C120" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D120" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E120" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F120" t="n">
-        <v>27131.8005</v>
+        <v>8800</v>
       </c>
       <c r="G120" t="n">
-        <v>64095.73649999981</v>
+        <v>-83691.11040000018</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C121" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D121" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E121" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F121" t="n">
-        <v>33100</v>
+        <v>16512.9616</v>
       </c>
       <c r="G121" t="n">
-        <v>97195.73649999981</v>
+        <v>-67178.14880000018</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4688,39 +4786,34 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C122" t="n">
         <v>27.6</v>
       </c>
       <c r="D122" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E122" t="n">
         <v>27.6</v>
       </c>
       <c r="F122" t="n">
-        <v>2153.5378</v>
+        <v>4502.7295</v>
       </c>
       <c r="G122" t="n">
-        <v>95042.1986999998</v>
+        <v>-71680.87830000019</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4729,1739 +4822,12 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>12200</v>
-      </c>
-      <c r="G123" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15700</v>
-      </c>
-      <c r="G124" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5494.0511</v>
-      </c>
-      <c r="G125" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4206.4563</v>
-      </c>
-      <c r="G126" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>64000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>43242.1986999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>600</v>
-      </c>
-      <c r="G128" t="n">
-        <v>43242.1986999998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10</v>
-      </c>
-      <c r="G129" t="n">
-        <v>43252.1986999998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>14440.5425</v>
-      </c>
-      <c r="G130" t="n">
-        <v>57692.7411999998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>590</v>
-      </c>
-      <c r="G131" t="n">
-        <v>57692.7411999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5309.8926</v>
-      </c>
-      <c r="G132" t="n">
-        <v>63002.6337999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D133" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E133" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1357.8964</v>
-      </c>
-      <c r="G133" t="n">
-        <v>63002.6337999998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>5410.016</v>
-      </c>
-      <c r="G134" t="n">
-        <v>57592.6177999998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D135" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2508</v>
-      </c>
-      <c r="G135" t="n">
-        <v>60100.6177999998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1857.1259</v>
-      </c>
-      <c r="G136" t="n">
-        <v>58243.4918999998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C137" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F137" t="n">
-        <v>881.6236</v>
-      </c>
-      <c r="G137" t="n">
-        <v>58243.4918999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1336.3907</v>
-      </c>
-      <c r="G138" t="n">
-        <v>58243.4918999998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>36998.8612</v>
-      </c>
-      <c r="G139" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5101.5588</v>
-      </c>
-      <c r="G140" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6055.7674</v>
-      </c>
-      <c r="G141" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6234.0715</v>
-      </c>
-      <c r="G142" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>30436.9955</v>
-      </c>
-      <c r="G143" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>36101.083</v>
-      </c>
-      <c r="G144" t="n">
-        <v>59141.27009999981</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2479.9083</v>
-      </c>
-      <c r="G145" t="n">
-        <v>59141.27009999981</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>51011.7929</v>
-      </c>
-      <c r="G146" t="n">
-        <v>59141.27009999981</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>39495.8578</v>
-      </c>
-      <c r="G147" t="n">
-        <v>19645.41229999981</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>76331.2182</v>
-      </c>
-      <c r="G148" t="n">
-        <v>19645.41229999981</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>140.543</v>
-      </c>
-      <c r="G149" t="n">
-        <v>19785.95529999981</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1612.7442</v>
-      </c>
-      <c r="G150" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F151" t="n">
-        <v>4366.7447</v>
-      </c>
-      <c r="G151" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>42397.2661</v>
-      </c>
-      <c r="G152" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F153" t="n">
-        <v>28500</v>
-      </c>
-      <c r="G153" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F154" t="n">
-        <v>14102.4618</v>
-      </c>
-      <c r="G154" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>28</v>
-      </c>
-      <c r="C155" t="n">
-        <v>28</v>
-      </c>
-      <c r="D155" t="n">
-        <v>28</v>
-      </c>
-      <c r="E155" t="n">
-        <v>28</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2580.4892</v>
-      </c>
-      <c r="G155" t="n">
-        <v>23979.18869999981</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>28</v>
-      </c>
-      <c r="C156" t="n">
-        <v>28</v>
-      </c>
-      <c r="D156" t="n">
-        <v>28</v>
-      </c>
-      <c r="E156" t="n">
-        <v>28</v>
-      </c>
-      <c r="F156" t="n">
-        <v>68124.35709999999</v>
-      </c>
-      <c r="G156" t="n">
-        <v>23979.18869999981</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>66651.61659999999</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-42672.42790000018</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>300</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-42672.42790000018</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>19851.4201</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-62523.84800000019</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>7034.4752</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-55489.37280000019</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F161" t="n">
-        <v>28201.7376</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-83691.11040000018</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F162" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-83691.11040000018</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F163" t="n">
-        <v>16512.9616</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-67178.14880000018</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4502.7295</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-71680.87830000019</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="D2" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>7341.6326</v>
+        <v>500</v>
       </c>
       <c r="G2" t="n">
-        <v>498775.1423999999</v>
+        <v>735376.3461</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="C3" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="F3" t="n">
-        <v>16252.8676</v>
+        <v>50828.1788</v>
       </c>
       <c r="G3" t="n">
-        <v>515028.0099999999</v>
+        <v>735376.3461</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E4" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F4" t="n">
-        <v>7391.4207</v>
+        <v>262115.7575</v>
       </c>
       <c r="G4" t="n">
-        <v>515028.0099999999</v>
+        <v>473260.5886</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C5" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E5" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="F5" t="n">
-        <v>29888.0571</v>
+        <v>45000</v>
       </c>
       <c r="G5" t="n">
-        <v>515028.0099999999</v>
+        <v>518260.5886</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>727.5217</v>
+        <v>57281.8214</v>
       </c>
       <c r="G6" t="n">
-        <v>515755.5316999999</v>
+        <v>460978.7671999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C7" t="n">
         <v>28</v>
@@ -627,19 +627,19 @@
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F7" t="n">
-        <v>2010</v>
+        <v>130577.9763</v>
       </c>
       <c r="G7" t="n">
-        <v>517765.5316999999</v>
+        <v>460978.7671999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -657,19 +657,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D8" t="n">
         <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F8" t="n">
-        <v>26630.3571</v>
+        <v>146481.5183</v>
       </c>
       <c r="G8" t="n">
-        <v>491135.1745999999</v>
+        <v>314497.2488999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F9" t="n">
-        <v>463.1661</v>
+        <v>16598.9627</v>
       </c>
       <c r="G9" t="n">
-        <v>490672.0084999999</v>
+        <v>331096.2115999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C10" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E10" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="F10" t="n">
-        <v>25314.7857</v>
+        <v>23699.7455</v>
       </c>
       <c r="G10" t="n">
-        <v>465357.2227999999</v>
+        <v>307396.4660999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>27.8</v>
       </c>
       <c r="F11" t="n">
-        <v>946.6679</v>
+        <v>500</v>
       </c>
       <c r="G11" t="n">
-        <v>466303.8906999999</v>
+        <v>306896.4660999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C12" t="n">
         <v>27.8</v>
@@ -807,13 +807,13 @@
         <v>27.8</v>
       </c>
       <c r="E12" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2306.8307</v>
+        <v>9861.1191</v>
       </c>
       <c r="G12" t="n">
-        <v>466303.8906999999</v>
+        <v>306896.4660999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C13" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D13" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E13" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F13" t="n">
-        <v>22929.802</v>
+        <v>27680</v>
       </c>
       <c r="G13" t="n">
-        <v>443374.0886999998</v>
+        <v>306896.4660999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C14" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E14" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F14" t="n">
-        <v>17054.1588</v>
+        <v>31335.6871</v>
       </c>
       <c r="G14" t="n">
-        <v>443374.0886999998</v>
+        <v>306896.4660999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E15" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>80594.03449999999</v>
       </c>
       <c r="G15" t="n">
-        <v>443385.0886999998</v>
+        <v>306896.4660999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>27.7</v>
       </c>
       <c r="C16" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7517.0343</v>
+        <v>1815.7512</v>
       </c>
       <c r="G16" t="n">
-        <v>443385.0886999998</v>
+        <v>306896.4660999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D17" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E17" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F17" t="n">
-        <v>36491.2479</v>
+        <v>71961.9477</v>
       </c>
       <c r="G17" t="n">
-        <v>406893.8407999998</v>
+        <v>234934.5183999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>27.6</v>
       </c>
       <c r="F18" t="n">
-        <v>1001.3174</v>
+        <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>407895.1581999998</v>
+        <v>234934.5183999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C19" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D19" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E19" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F19" t="n">
-        <v>9400</v>
+        <v>23798.2813</v>
       </c>
       <c r="G19" t="n">
-        <v>398495.1581999998</v>
+        <v>258732.7996999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C20" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D20" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E20" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>1001</v>
       </c>
       <c r="G20" t="n">
-        <v>398505.1581999998</v>
+        <v>259733.7996999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C21" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D21" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E21" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>37792.353</v>
       </c>
       <c r="G21" t="n">
-        <v>408505.1581999998</v>
+        <v>259733.7996999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1161,19 +1161,19 @@
         <v>27.9</v>
       </c>
       <c r="C22" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D22" t="n">
         <v>27.9</v>
       </c>
       <c r="E22" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>43719.0618</v>
       </c>
       <c r="G22" t="n">
-        <v>408505.1581999998</v>
+        <v>216014.7378999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="D23" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E23" t="n">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>48945.7825</v>
       </c>
       <c r="G23" t="n">
-        <v>408495.1581999998</v>
+        <v>167068.9553999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>979.8411</v>
+        <v>945.1137</v>
       </c>
       <c r="G24" t="n">
-        <v>407515.3170999998</v>
+        <v>166123.8416999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C25" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D25" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E25" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
-        <v>684.7645</v>
+        <v>23433.9552</v>
       </c>
       <c r="G25" t="n">
-        <v>407515.3170999998</v>
+        <v>189557.7968999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="C26" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="D26" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="E26" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="F26" t="n">
-        <v>14755.1254</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>422270.4424999998</v>
+        <v>189568.7968999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="C27" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D27" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="E27" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F27" t="n">
-        <v>39077.8479</v>
+        <v>7010</v>
       </c>
       <c r="G27" t="n">
-        <v>383192.5945999998</v>
+        <v>189568.7968999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C28" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D28" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E28" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F28" t="n">
-        <v>4425.9079</v>
+        <v>7185.6744</v>
       </c>
       <c r="G28" t="n">
-        <v>383192.5945999998</v>
+        <v>196754.4712999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C29" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D29" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E29" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F29" t="n">
-        <v>1802.8835</v>
+        <v>19183.6692</v>
       </c>
       <c r="G29" t="n">
-        <v>381389.7110999998</v>
+        <v>215938.1404999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1449,25 +1449,25 @@
         <v>27.5</v>
       </c>
       <c r="C30" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D30" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E30" t="n">
         <v>27.5</v>
       </c>
       <c r="F30" t="n">
-        <v>11629.7375</v>
+        <v>2258.0684</v>
       </c>
       <c r="G30" t="n">
-        <v>369759.9735999999</v>
+        <v>218196.2088999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E31" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F31" t="n">
-        <v>9361.179400000001</v>
+        <v>3969</v>
       </c>
       <c r="G31" t="n">
-        <v>369759.9735999999</v>
+        <v>218196.2088999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C32" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D32" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E32" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>2973.7222</v>
       </c>
       <c r="G32" t="n">
-        <v>369859.9735999999</v>
+        <v>218196.2088999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C33" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D33" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E33" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F33" t="n">
-        <v>35435.8488</v>
+        <v>22403.0322</v>
       </c>
       <c r="G33" t="n">
-        <v>369859.9735999999</v>
+        <v>218196.2088999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C34" t="n">
         <v>27.6</v>
@@ -1599,19 +1599,19 @@
         <v>27.6</v>
       </c>
       <c r="E34" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1187.9962</v>
+        <v>2468.1387</v>
       </c>
       <c r="G34" t="n">
-        <v>368671.9773999999</v>
+        <v>218196.2088999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1629,25 +1629,25 @@
         <v>27.7</v>
       </c>
       <c r="C35" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D35" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E35" t="n">
         <v>27.7</v>
       </c>
       <c r="F35" t="n">
-        <v>2097.3199</v>
+        <v>683.147</v>
       </c>
       <c r="G35" t="n">
-        <v>370769.2972999999</v>
+        <v>218879.3558999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1674,16 +1674,16 @@
         <v>27.7</v>
       </c>
       <c r="F36" t="n">
-        <v>1740.831</v>
+        <v>26046.7509</v>
       </c>
       <c r="G36" t="n">
-        <v>369028.4662999999</v>
+        <v>218879.3558999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C37" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D37" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E37" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F37" t="n">
-        <v>22484.7841</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>346543.6821999999</v>
+        <v>218889.3558999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C38" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D38" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E38" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F38" t="n">
-        <v>66.033</v>
+        <v>1725.1876</v>
       </c>
       <c r="G38" t="n">
-        <v>346543.6821999999</v>
+        <v>217164.1682999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C39" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D39" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E39" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F39" t="n">
-        <v>1683.7484</v>
+        <v>757.0933</v>
       </c>
       <c r="G39" t="n">
-        <v>346543.6821999999</v>
+        <v>216407.0749999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>27.5</v>
       </c>
       <c r="F40" t="n">
-        <v>9206.306</v>
+        <v>927.3455</v>
       </c>
       <c r="G40" t="n">
-        <v>337337.3761999999</v>
+        <v>217334.4204999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C41" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D41" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E41" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F41" t="n">
-        <v>12225.1675</v>
+        <v>3385.9112</v>
       </c>
       <c r="G41" t="n">
-        <v>337337.3761999999</v>
+        <v>213948.5092999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C42" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D42" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E42" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F42" t="n">
-        <v>14670.6901</v>
+        <v>7080.291</v>
       </c>
       <c r="G42" t="n">
-        <v>337337.3761999999</v>
+        <v>213948.5092999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C43" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D43" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E43" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F43" t="n">
-        <v>6168.6429</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>343506.0190999999</v>
+        <v>213848.5092999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C44" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D44" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E44" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F44" t="n">
-        <v>30600</v>
+        <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>343506.0190999999</v>
+        <v>213848.5092999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C45" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D45" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E45" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="F45" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>343506.0190999999</v>
+        <v>213848.5092999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C46" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E46" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>71033.0223</v>
+        <v>6059.6223</v>
       </c>
       <c r="G46" t="n">
-        <v>272472.9967999998</v>
+        <v>207788.8869999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C47" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="D47" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E47" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F47" t="n">
-        <v>13820.9662</v>
+        <v>2280.904</v>
       </c>
       <c r="G47" t="n">
-        <v>272472.9967999998</v>
+        <v>210069.7909999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="C48" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="D48" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="E48" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="F48" t="n">
-        <v>15049.7482</v>
+        <v>594</v>
       </c>
       <c r="G48" t="n">
-        <v>287522.7449999998</v>
+        <v>209475.7909999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D49" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E49" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>821.5399</v>
+        <v>12906.5691</v>
       </c>
       <c r="G49" t="n">
-        <v>287522.7449999998</v>
+        <v>222382.3600999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="C50" t="n">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="D50" t="n">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="E50" t="n">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="F50" t="n">
-        <v>1627.3504</v>
+        <v>5432.1454</v>
       </c>
       <c r="G50" t="n">
-        <v>289150.0953999998</v>
+        <v>216950.2146999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="D51" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F51" t="n">
-        <v>789.3821</v>
+        <v>23700</v>
       </c>
       <c r="G51" t="n">
-        <v>288360.7132999998</v>
+        <v>193250.2146999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,32 +2238,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="C52" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="D52" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="E52" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1576.1714</v>
+        <v>8497.079100000001</v>
       </c>
       <c r="G52" t="n">
-        <v>289936.8846999998</v>
+        <v>201747.2937999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2280,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="C53" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="D53" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="E53" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="F53" t="n">
-        <v>5016.0507</v>
+        <v>9237</v>
       </c>
       <c r="G53" t="n">
-        <v>284920.8339999998</v>
+        <v>201747.2937999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>26.8</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2322,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C54" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D54" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E54" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F54" t="n">
-        <v>25424.2593</v>
+        <v>12334</v>
       </c>
       <c r="G54" t="n">
-        <v>284920.8339999998</v>
+        <v>214081.2937999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2347,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2362,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C55" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D55" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E55" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F55" t="n">
-        <v>3423.9749</v>
+        <v>2123.0945</v>
       </c>
       <c r="G55" t="n">
-        <v>284920.8339999998</v>
+        <v>216204.3882999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2387,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2402,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C56" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D56" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E56" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F56" t="n">
-        <v>118000.6959</v>
+        <v>12000</v>
       </c>
       <c r="G56" t="n">
-        <v>166920.1380999998</v>
+        <v>228204.3882999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2427,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2442,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C57" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D57" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E57" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F57" t="n">
-        <v>2564.1025</v>
+        <v>503.7718</v>
       </c>
       <c r="G57" t="n">
-        <v>169484.2405999998</v>
+        <v>228204.3882999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2467,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2482,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C58" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D58" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E58" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F58" t="n">
-        <v>2554.7445</v>
+        <v>4482.7636</v>
       </c>
       <c r="G58" t="n">
-        <v>166929.4960999998</v>
+        <v>232687.1518999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2507,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2522,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C59" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D59" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E59" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F59" t="n">
-        <v>2554.7445</v>
+        <v>11.0108</v>
       </c>
       <c r="G59" t="n">
-        <v>166929.4960999998</v>
+        <v>232698.1626999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2547,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2562,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C60" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D60" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E60" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F60" t="n">
-        <v>2383.7226</v>
+        <v>3603.2338</v>
       </c>
       <c r="G60" t="n">
-        <v>166929.4960999998</v>
+        <v>236301.3964999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2587,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2602,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C61" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D61" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E61" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F61" t="n">
-        <v>6161.0466</v>
+        <v>22484.7841</v>
       </c>
       <c r="G61" t="n">
-        <v>166929.4960999998</v>
+        <v>236301.3964999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2627,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2610,10 +2654,10 @@
         <v>27.4</v>
       </c>
       <c r="F62" t="n">
-        <v>4744.9627</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>166929.4960999998</v>
+        <v>236291.3964999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2667,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2682,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C63" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D63" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>20213.6522</v>
       </c>
       <c r="G63" t="n">
-        <v>166940.4960999998</v>
+        <v>236291.3964999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2707,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2722,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C64" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D64" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E64" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F64" t="n">
-        <v>30469.8922</v>
+        <v>132</v>
       </c>
       <c r="G64" t="n">
-        <v>136470.6038999998</v>
+        <v>236423.3964999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2747,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2762,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C65" t="n">
         <v>27.4</v>
       </c>
       <c r="D65" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E65" t="n">
         <v>27.4</v>
       </c>
       <c r="F65" t="n">
-        <v>778.2788</v>
+        <v>19897.2566</v>
       </c>
       <c r="G65" t="n">
-        <v>136470.6038999998</v>
+        <v>216526.1398999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2787,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2802,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C66" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D66" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E66" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F66" t="n">
-        <v>2564.1025</v>
+        <v>162525.2828</v>
       </c>
       <c r="G66" t="n">
-        <v>133906.5013999998</v>
+        <v>379051.4226999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +2827,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2842,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="D67" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="E67" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F67" t="n">
-        <v>7692.3075</v>
+        <v>121618.2011</v>
       </c>
       <c r="G67" t="n">
-        <v>133906.5013999998</v>
+        <v>500669.6237999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +2867,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2882,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="C68" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="E68" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F68" t="n">
-        <v>13130.8195</v>
+        <v>49973.8583</v>
       </c>
       <c r="G68" t="n">
-        <v>133906.5013999998</v>
+        <v>450695.7654999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +2907,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +2922,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C69" t="n">
-        <v>27.1</v>
+        <v>28.1</v>
       </c>
       <c r="D69" t="n">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="E69" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="F69" t="n">
-        <v>63296.2529</v>
+        <v>55721.1965</v>
       </c>
       <c r="G69" t="n">
-        <v>70610.24849999981</v>
+        <v>506416.9619999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +2947,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +2962,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C70" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D70" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E70" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="F70" t="n">
-        <v>18886.2885</v>
+        <v>310.187</v>
       </c>
       <c r="G70" t="n">
-        <v>89496.53699999981</v>
+        <v>506106.7749999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +2987,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,36 +3002,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C71" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D71" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E71" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="F71" t="n">
-        <v>7720.5882</v>
+        <v>3882.4029</v>
       </c>
       <c r="G71" t="n">
-        <v>89496.53699999981</v>
+        <v>506106.7749999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2962,38 +3042,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="E72" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F72" t="n">
-        <v>122612.6149</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>89496.53699999981</v>
+        <v>506116.7749999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K72" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3006,38 +3082,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C73" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D73" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E73" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F73" t="n">
-        <v>1720</v>
+        <v>7341.6326</v>
       </c>
       <c r="G73" t="n">
-        <v>91216.53699999981</v>
+        <v>498775.1423999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3050,36 +3122,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C74" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D74" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E74" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F74" t="n">
-        <v>66</v>
+        <v>16252.8676</v>
       </c>
       <c r="G74" t="n">
-        <v>91216.53699999981</v>
+        <v>515028.0099999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3090,38 +3162,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C75" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D75" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E75" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F75" t="n">
-        <v>171.1812</v>
+        <v>7391.4207</v>
       </c>
       <c r="G75" t="n">
-        <v>91216.53699999981</v>
+        <v>515028.0099999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3134,38 +3202,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C76" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D76" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E76" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>29888.0571</v>
       </c>
       <c r="G76" t="n">
-        <v>91227.53699999981</v>
+        <v>515028.0099999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3178,22 +3242,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C77" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D77" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E77" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1326.6757</v>
+        <v>727.5217</v>
       </c>
       <c r="G77" t="n">
-        <v>91227.53699999981</v>
+        <v>515755.5316999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3203,7 +3267,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3214,22 +3282,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C78" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F78" t="n">
-        <v>27131.8005</v>
+        <v>2010</v>
       </c>
       <c r="G78" t="n">
-        <v>64095.73649999981</v>
+        <v>517765.5316999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3239,7 +3307,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +3322,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C79" t="n">
         <v>27.7</v>
       </c>
       <c r="D79" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E79" t="n">
         <v>27.6</v>
       </c>
       <c r="F79" t="n">
-        <v>33100</v>
+        <v>26630.3571</v>
       </c>
       <c r="G79" t="n">
-        <v>97195.73649999981</v>
+        <v>491135.1745999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3275,7 +3347,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3298,10 +3374,10 @@
         <v>27.6</v>
       </c>
       <c r="F80" t="n">
-        <v>2153.5378</v>
+        <v>463.1661</v>
       </c>
       <c r="G80" t="n">
-        <v>95042.1986999998</v>
+        <v>490672.0084999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3311,7 +3387,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3325,19 +3405,19 @@
         <v>27.7</v>
       </c>
       <c r="C81" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D81" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E81" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F81" t="n">
-        <v>12200</v>
+        <v>25314.7857</v>
       </c>
       <c r="G81" t="n">
-        <v>107242.1986999998</v>
+        <v>465357.2227999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3347,7 +3427,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3370,10 +3454,10 @@
         <v>27.8</v>
       </c>
       <c r="F82" t="n">
-        <v>15700</v>
+        <v>946.6679</v>
       </c>
       <c r="G82" t="n">
-        <v>107242.1986999998</v>
+        <v>466303.8906999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3383,7 +3467,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3394,7 +3482,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C83" t="n">
         <v>27.8</v>
@@ -3403,13 +3491,13 @@
         <v>27.8</v>
       </c>
       <c r="E83" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F83" t="n">
-        <v>5494.0511</v>
+        <v>2306.8307</v>
       </c>
       <c r="G83" t="n">
-        <v>107242.1986999998</v>
+        <v>466303.8906999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3419,7 +3507,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3522,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C84" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D84" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E84" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F84" t="n">
-        <v>4206.4563</v>
+        <v>22929.802</v>
       </c>
       <c r="G84" t="n">
-        <v>107242.1986999998</v>
+        <v>443374.0886999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3455,7 +3547,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3562,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C85" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D85" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E85" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F85" t="n">
-        <v>64000</v>
+        <v>17054.1588</v>
       </c>
       <c r="G85" t="n">
-        <v>43242.1986999998</v>
+        <v>443374.0886999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3491,7 +3587,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3502,22 +3602,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C86" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D86" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="E86" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F86" t="n">
-        <v>600</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>43242.1986999998</v>
+        <v>443385.0886999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3527,7 +3627,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3541,19 +3645,19 @@
         <v>27.7</v>
       </c>
       <c r="C87" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D87" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E87" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>7517.0343</v>
       </c>
       <c r="G87" t="n">
-        <v>43252.1986999998</v>
+        <v>443385.0886999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3563,7 +3667,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3574,22 +3682,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C88" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D88" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E88" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F88" t="n">
-        <v>14440.5425</v>
+        <v>36491.2479</v>
       </c>
       <c r="G88" t="n">
-        <v>57692.7411999998</v>
+        <v>406893.8407999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3599,7 +3707,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3610,22 +3722,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C89" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D89" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E89" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F89" t="n">
-        <v>590</v>
+        <v>1001.3174</v>
       </c>
       <c r="G89" t="n">
-        <v>57692.7411999998</v>
+        <v>407895.1581999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3635,7 +3747,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3646,22 +3762,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="C90" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D90" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E90" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F90" t="n">
-        <v>5309.8926</v>
+        <v>9400</v>
       </c>
       <c r="G90" t="n">
-        <v>63002.6337999998</v>
+        <v>398495.1581999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3671,7 +3787,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3682,22 +3802,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C91" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D91" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E91" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F91" t="n">
-        <v>1357.8964</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>63002.6337999998</v>
+        <v>398505.1581999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3707,7 +3827,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3718,22 +3842,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C92" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D92" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E92" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F92" t="n">
-        <v>5410.016</v>
+        <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>57592.6177999998</v>
+        <v>408505.1581999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3743,7 +3867,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3766,10 +3894,10 @@
         <v>27.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2508</v>
+        <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>60100.6177999998</v>
+        <v>408505.1581999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3779,7 +3907,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3802,23 +3934,25 @@
         <v>27.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1857.1259</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>58243.4918999998</v>
+        <v>408495.1581999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3826,28 +3960,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C95" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D95" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E95" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F95" t="n">
-        <v>881.6236</v>
+        <v>979.8411</v>
       </c>
       <c r="G95" t="n">
-        <v>58243.4918999998</v>
+        <v>407515.3170999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3862,22 +3996,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C96" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D96" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E96" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F96" t="n">
-        <v>1336.3907</v>
+        <v>684.7645</v>
       </c>
       <c r="G96" t="n">
-        <v>58243.4918999998</v>
+        <v>407515.3170999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3910,10 +4044,10 @@
         <v>27.9</v>
       </c>
       <c r="F97" t="n">
-        <v>36998.8612</v>
+        <v>14755.1254</v>
       </c>
       <c r="G97" t="n">
-        <v>95242.3530999998</v>
+        <v>422270.4424999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3937,19 +4071,19 @@
         <v>27.8</v>
       </c>
       <c r="C98" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D98" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E98" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F98" t="n">
-        <v>5101.5588</v>
+        <v>39077.8479</v>
       </c>
       <c r="G98" t="n">
-        <v>95242.3530999998</v>
+        <v>383192.5945999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3970,28 +4104,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C99" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D99" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E99" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F99" t="n">
-        <v>6055.7674</v>
+        <v>4425.9079</v>
       </c>
       <c r="G99" t="n">
-        <v>95242.3530999998</v>
+        <v>383192.5945999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4006,22 +4140,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C100" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D100" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E100" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F100" t="n">
-        <v>6234.0715</v>
+        <v>1802.8835</v>
       </c>
       <c r="G100" t="n">
-        <v>95242.3530999998</v>
+        <v>381389.7110999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4042,22 +4176,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="C101" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D101" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E101" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F101" t="n">
-        <v>30436.9955</v>
+        <v>11629.7375</v>
       </c>
       <c r="G101" t="n">
-        <v>95242.3530999998</v>
+        <v>369759.9735999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4078,22 +4212,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C102" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D102" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E102" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F102" t="n">
-        <v>36101.083</v>
+        <v>9361.179400000001</v>
       </c>
       <c r="G102" t="n">
-        <v>59141.27009999981</v>
+        <v>369759.9735999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4126,10 +4260,10 @@
         <v>27.7</v>
       </c>
       <c r="F103" t="n">
-        <v>2479.9083</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>59141.27009999981</v>
+        <v>369859.9735999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4162,10 +4296,10 @@
         <v>27.6</v>
       </c>
       <c r="F104" t="n">
-        <v>51011.7929</v>
+        <v>35435.8488</v>
       </c>
       <c r="G104" t="n">
-        <v>59141.27009999981</v>
+        <v>369859.9735999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4186,22 +4320,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D105" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E105" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F105" t="n">
-        <v>39495.8578</v>
+        <v>1187.9962</v>
       </c>
       <c r="G105" t="n">
-        <v>19645.41229999981</v>
+        <v>368671.9773999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4222,22 +4356,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C106" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E106" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F106" t="n">
-        <v>76331.2182</v>
+        <v>2097.3199</v>
       </c>
       <c r="G106" t="n">
-        <v>19645.41229999981</v>
+        <v>370769.2972999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4270,10 +4404,10 @@
         <v>27.7</v>
       </c>
       <c r="F107" t="n">
-        <v>140.543</v>
+        <v>1740.831</v>
       </c>
       <c r="G107" t="n">
-        <v>19785.95529999981</v>
+        <v>369028.4662999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4294,22 +4428,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C108" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D108" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F108" t="n">
-        <v>1612.7442</v>
+        <v>22484.7841</v>
       </c>
       <c r="G108" t="n">
-        <v>21398.69949999981</v>
+        <v>346543.6821999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4330,22 +4464,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C109" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D109" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E109" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F109" t="n">
-        <v>4366.7447</v>
+        <v>66.033</v>
       </c>
       <c r="G109" t="n">
-        <v>21398.69949999981</v>
+        <v>346543.6821999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4366,22 +4500,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C110" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D110" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E110" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F110" t="n">
-        <v>42397.2661</v>
+        <v>1683.7484</v>
       </c>
       <c r="G110" t="n">
-        <v>21398.69949999981</v>
+        <v>346543.6821999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4402,22 +4536,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="C111" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D111" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E111" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F111" t="n">
-        <v>28500</v>
+        <v>9206.306</v>
       </c>
       <c r="G111" t="n">
-        <v>21398.69949999981</v>
+        <v>337337.3761999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4438,22 +4572,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="C112" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D112" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E112" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F112" t="n">
-        <v>14102.4618</v>
+        <v>12225.1675</v>
       </c>
       <c r="G112" t="n">
-        <v>21398.69949999981</v>
+        <v>337337.3761999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4474,22 +4608,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D113" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E113" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F113" t="n">
-        <v>2580.4892</v>
+        <v>14670.6901</v>
       </c>
       <c r="G113" t="n">
-        <v>23979.18869999981</v>
+        <v>337337.3761999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4510,28 +4644,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D114" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E114" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F114" t="n">
-        <v>68124.35709999999</v>
+        <v>6168.6429</v>
       </c>
       <c r="G114" t="n">
-        <v>23979.18869999981</v>
+        <v>343506.0190999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4546,28 +4680,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C115" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D115" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E115" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F115" t="n">
-        <v>66651.61659999999</v>
+        <v>30600</v>
       </c>
       <c r="G115" t="n">
-        <v>-42672.42790000018</v>
+        <v>343506.0190999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4582,28 +4716,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C116" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D116" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E116" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F116" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G116" t="n">
-        <v>-42672.42790000018</v>
+        <v>343506.0190999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4618,22 +4752,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C117" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D117" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E117" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F117" t="n">
-        <v>19851.4201</v>
+        <v>71033.0223</v>
       </c>
       <c r="G117" t="n">
-        <v>-62523.84800000019</v>
+        <v>272472.9967999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4657,25 +4791,25 @@
         <v>27.7</v>
       </c>
       <c r="C118" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D118" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E118" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F118" t="n">
-        <v>7034.4752</v>
+        <v>13820.9662</v>
       </c>
       <c r="G118" t="n">
-        <v>-55489.37280000019</v>
+        <v>272472.9967999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4690,7 +4824,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C119" t="n">
         <v>27.7</v>
@@ -4699,19 +4833,19 @@
         <v>27.7</v>
       </c>
       <c r="E119" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F119" t="n">
-        <v>28201.7376</v>
+        <v>15049.7482</v>
       </c>
       <c r="G119" t="n">
-        <v>-83691.11040000018</v>
+        <v>287522.7449999998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4726,7 +4860,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C120" t="n">
         <v>27.7</v>
@@ -4735,19 +4869,19 @@
         <v>27.7</v>
       </c>
       <c r="E120" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F120" t="n">
-        <v>8800</v>
+        <v>821.5399</v>
       </c>
       <c r="G120" t="n">
-        <v>-83691.11040000018</v>
+        <v>287522.7449999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4762,7 +4896,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C121" t="n">
         <v>27.8</v>
@@ -4771,13 +4905,13 @@
         <v>27.8</v>
       </c>
       <c r="E121" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F121" t="n">
-        <v>16512.9616</v>
+        <v>1627.3504</v>
       </c>
       <c r="G121" t="n">
-        <v>-67178.14880000018</v>
+        <v>289150.0953999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4798,22 +4932,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C122" t="n">
         <v>27.6</v>
       </c>
       <c r="D122" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E122" t="n">
         <v>27.6</v>
       </c>
       <c r="F122" t="n">
-        <v>4502.7295</v>
+        <v>789.3821</v>
       </c>
       <c r="G122" t="n">
-        <v>-71680.87830000019</v>
+        <v>288360.7132999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4829,6 +4963,2930 @@
       </c>
       <c r="N122" t="inlineStr"/>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1576.1714</v>
+      </c>
+      <c r="G123" t="n">
+        <v>289936.8846999998</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5016.0507</v>
+      </c>
+      <c r="G124" t="n">
+        <v>284920.8339999998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>25424.2593</v>
+      </c>
+      <c r="G125" t="n">
+        <v>284920.8339999998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3423.9749</v>
+      </c>
+      <c r="G126" t="n">
+        <v>284920.8339999998</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>118000.6959</v>
+      </c>
+      <c r="G127" t="n">
+        <v>166920.1380999998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2564.1025</v>
+      </c>
+      <c r="G128" t="n">
+        <v>169484.2405999998</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2554.7445</v>
+      </c>
+      <c r="G129" t="n">
+        <v>166929.4960999998</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2554.7445</v>
+      </c>
+      <c r="G130" t="n">
+        <v>166929.4960999998</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2383.7226</v>
+      </c>
+      <c r="G131" t="n">
+        <v>166929.4960999998</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6161.0466</v>
+      </c>
+      <c r="G132" t="n">
+        <v>166929.4960999998</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4744.9627</v>
+      </c>
+      <c r="G133" t="n">
+        <v>166929.4960999998</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11</v>
+      </c>
+      <c r="G134" t="n">
+        <v>166940.4960999998</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>30469.8922</v>
+      </c>
+      <c r="G135" t="n">
+        <v>136470.6038999998</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>778.2788</v>
+      </c>
+      <c r="G136" t="n">
+        <v>136470.6038999998</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2564.1025</v>
+      </c>
+      <c r="G137" t="n">
+        <v>133906.5013999998</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7692.3075</v>
+      </c>
+      <c r="G138" t="n">
+        <v>133906.5013999998</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>13130.8195</v>
+      </c>
+      <c r="G139" t="n">
+        <v>133906.5013999998</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>63296.2529</v>
+      </c>
+      <c r="G140" t="n">
+        <v>70610.24849999981</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>18886.2885</v>
+      </c>
+      <c r="G141" t="n">
+        <v>89496.53699999981</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7720.5882</v>
+      </c>
+      <c r="G142" t="n">
+        <v>89496.53699999981</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K142" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>122612.6149</v>
+      </c>
+      <c r="G143" t="n">
+        <v>89496.53699999981</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1720</v>
+      </c>
+      <c r="G144" t="n">
+        <v>91216.53699999981</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>66</v>
+      </c>
+      <c r="G145" t="n">
+        <v>91216.53699999981</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>171.1812</v>
+      </c>
+      <c r="G146" t="n">
+        <v>91216.53699999981</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>91227.53699999981</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1326.6757</v>
+      </c>
+      <c r="G148" t="n">
+        <v>91227.53699999981</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>27131.8005</v>
+      </c>
+      <c r="G149" t="n">
+        <v>64095.73649999981</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>33100</v>
+      </c>
+      <c r="G150" t="n">
+        <v>97195.73649999981</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2153.5378</v>
+      </c>
+      <c r="G151" t="n">
+        <v>95042.1986999998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G152" t="n">
+        <v>107242.1986999998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>15700</v>
+      </c>
+      <c r="G153" t="n">
+        <v>107242.1986999998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5494.0511</v>
+      </c>
+      <c r="G154" t="n">
+        <v>107242.1986999998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4206.4563</v>
+      </c>
+      <c r="G155" t="n">
+        <v>107242.1986999998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>64000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>43242.1986999998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>600</v>
+      </c>
+      <c r="G157" t="n">
+        <v>43242.1986999998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>43252.1986999998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>14440.5425</v>
+      </c>
+      <c r="G159" t="n">
+        <v>57692.7411999998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>590</v>
+      </c>
+      <c r="G160" t="n">
+        <v>57692.7411999998</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5309.8926</v>
+      </c>
+      <c r="G161" t="n">
+        <v>63002.6337999998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1357.8964</v>
+      </c>
+      <c r="G162" t="n">
+        <v>63002.6337999998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5410.016</v>
+      </c>
+      <c r="G163" t="n">
+        <v>57592.6177999998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2508</v>
+      </c>
+      <c r="G164" t="n">
+        <v>60100.6177999998</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1857.1259</v>
+      </c>
+      <c r="G165" t="n">
+        <v>58243.4918999998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>881.6236</v>
+      </c>
+      <c r="G166" t="n">
+        <v>58243.4918999998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1336.3907</v>
+      </c>
+      <c r="G167" t="n">
+        <v>58243.4918999998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>36998.8612</v>
+      </c>
+      <c r="G168" t="n">
+        <v>95242.3530999998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5101.5588</v>
+      </c>
+      <c r="G169" t="n">
+        <v>95242.3530999998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6055.7674</v>
+      </c>
+      <c r="G170" t="n">
+        <v>95242.3530999998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6234.0715</v>
+      </c>
+      <c r="G171" t="n">
+        <v>95242.3530999998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>30436.9955</v>
+      </c>
+      <c r="G172" t="n">
+        <v>95242.3530999998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>36101.083</v>
+      </c>
+      <c r="G173" t="n">
+        <v>59141.27009999981</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2479.9083</v>
+      </c>
+      <c r="G174" t="n">
+        <v>59141.27009999981</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>51011.7929</v>
+      </c>
+      <c r="G175" t="n">
+        <v>59141.27009999981</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>39495.8578</v>
+      </c>
+      <c r="G176" t="n">
+        <v>19645.41229999981</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K176" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>76331.2182</v>
+      </c>
+      <c r="G177" t="n">
+        <v>19645.41229999981</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K177" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>140.543</v>
+      </c>
+      <c r="G178" t="n">
+        <v>19785.95529999981</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K178" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1612.7442</v>
+      </c>
+      <c r="G179" t="n">
+        <v>21398.69949999981</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4366.7447</v>
+      </c>
+      <c r="G180" t="n">
+        <v>21398.69949999981</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>42397.2661</v>
+      </c>
+      <c r="G181" t="n">
+        <v>21398.69949999981</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F182" t="n">
+        <v>28500</v>
+      </c>
+      <c r="G182" t="n">
+        <v>21398.69949999981</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F183" t="n">
+        <v>14102.4618</v>
+      </c>
+      <c r="G183" t="n">
+        <v>21398.69949999981</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>28</v>
+      </c>
+      <c r="C184" t="n">
+        <v>28</v>
+      </c>
+      <c r="D184" t="n">
+        <v>28</v>
+      </c>
+      <c r="E184" t="n">
+        <v>28</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2580.4892</v>
+      </c>
+      <c r="G184" t="n">
+        <v>23979.18869999981</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>28</v>
+      </c>
+      <c r="C185" t="n">
+        <v>28</v>
+      </c>
+      <c r="D185" t="n">
+        <v>28</v>
+      </c>
+      <c r="E185" t="n">
+        <v>28</v>
+      </c>
+      <c r="F185" t="n">
+        <v>68124.35709999999</v>
+      </c>
+      <c r="G185" t="n">
+        <v>23979.18869999981</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>66651.61659999999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-42672.42790000018</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>300</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-42672.42790000018</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19851.4201</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-62523.84800000019</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K188" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7034.4752</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-55489.37280000019</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K189" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C190" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E190" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>28201.7376</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-83691.11040000018</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K190" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C191" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D191" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E191" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-83691.11040000018</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>16512.9616</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-67178.14880000018</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K192" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4502.7295</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-71680.87830000019</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K193" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>314497.2488999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>331096.2115999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>307396.4660999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>234934.5183999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>234934.5183999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1014,12 +1014,8 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27.6</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1051,17 +1047,9 @@
       <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1090,17 +1078,11 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,19 +1111,11 @@
         <v>216014.7378999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1170,17 +1144,11 @@
         <v>167068.9553999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1209,17 +1177,11 @@
         <v>166123.8416999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1251,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1290,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1329,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1368,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1407,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1446,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1485,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1524,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1560,17 +1474,11 @@
         <v>218196.2088999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1602,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1638,17 +1540,11 @@
         <v>218879.3558999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1677,17 +1573,11 @@
         <v>218879.3558999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1716,17 +1606,11 @@
         <v>218889.3558999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1755,17 +1639,11 @@
         <v>217164.1682999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1794,17 +1672,11 @@
         <v>216407.0749999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1836,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1875,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1914,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1953,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1992,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2031,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2070,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2109,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2148,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2187,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2226,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2265,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2304,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2343,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2382,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2421,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2460,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2538,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2574,17 +2332,11 @@
         <v>232698.1626999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2616,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2652,17 +2398,11 @@
         <v>236301.3964999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,17 +2431,11 @@
         <v>236291.3964999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2730,17 +2464,11 @@
         <v>236291.3964999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2769,17 +2497,11 @@
         <v>236423.3964999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2811,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2850,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2886,17 +2596,11 @@
         <v>500669.6237999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2928,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2964,19 +2662,13 @@
         <v>506416.9619999999</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>1.013115942028986</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -3036,7 +2728,7 @@
         <v>506106.7749999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3102,7 +2794,7 @@
         <v>498775.1423999999</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3168,7 +2860,7 @@
         <v>515028.0099999999</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3201,7 +2893,7 @@
         <v>515028.0099999999</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3234,7 +2926,7 @@
         <v>515755.5316999999</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3267,7 +2959,7 @@
         <v>517765.5316999999</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3366,7 +3058,7 @@
         <v>465357.2227999999</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3399,7 +3091,7 @@
         <v>466303.8906999999</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3432,7 +3124,7 @@
         <v>466303.8906999999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3465,7 +3157,7 @@
         <v>443374.0886999998</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3498,7 +3190,7 @@
         <v>443374.0886999998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3531,7 +3223,7 @@
         <v>443385.0886999998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3696,7 +3388,7 @@
         <v>398505.1581999998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3828,7 +3520,7 @@
         <v>407515.3170999998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4092,7 +3784,7 @@
         <v>369859.9735999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4158,7 +3850,7 @@
         <v>368671.9773999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5379,7 +5071,7 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5412,14 +5104,10 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5449,19 +5137,11 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J144" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5490,19 +5170,11 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J145" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5531,14 +5203,10 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J146" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5568,19 +5236,11 @@
         <v>91227.53699999981</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5612,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5945,14 +5599,10 @@
         <v>43252.1986999998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J158" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
@@ -5985,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +5863,7 @@
         <v>58243.4918999998</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6258,7 +5896,7 @@
         <v>58243.4918999998</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6291,7 +5929,7 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6588,10 +6226,14 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27.5</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6621,11 +6263,19 @@
         <v>19785.95529999981</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6304,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6753,10 +6411,14 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J182" t="n">
+        <v>27.9</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6786,11 +6448,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +6489,19 @@
         <v>23979.18869999981</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6852,10 +6530,14 @@
         <v>23979.18869999981</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>28</v>
+      </c>
+      <c r="J185" t="n">
+        <v>28</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
@@ -6888,8 +6570,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>28</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6606,19 @@
         <v>-42672.42790000018</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J187" t="n">
+        <v>28</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6647,19 @@
         <v>-62523.84800000019</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J188" t="n">
+        <v>28</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6688,19 @@
         <v>-55489.37280000019</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>28</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7017,15 +6729,19 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>27.8</v>
       </c>
       <c r="J190" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7054,17 +6770,17 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>27.7</v>
       </c>
       <c r="J191" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -7095,17 +6811,17 @@
         <v>-67178.14880000018</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>27.7</v>
       </c>
       <c r="J192" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -7136,17 +6852,17 @@
         <v>-71680.87830000019</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>27.8</v>
       </c>
       <c r="J193" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -7155,6 +6871,6 @@
       <c r="M193" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>314497.2488999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>331096.2115999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>307396.4660999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>234934.5183999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>234934.5183999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>216014.7378999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>167068.9553999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>166123.8416999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>218196.2088999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>218879.3558999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>218879.3558999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>218889.3558999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>217164.1682999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>216407.0749999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2200,10 +2200,14 @@
         <v>216204.3882999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2233,11 +2237,19 @@
         <v>228204.3882999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -5137,10 +5155,14 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5173,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +6260,10 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J177" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6263,19 +6293,11 @@
         <v>19785.95529999981</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6304,19 +6326,11 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6411,14 +6425,10 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J182" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6448,19 +6458,11 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J183" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6489,19 +6491,11 @@
         <v>23979.18869999981</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J184" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6530,14 +6524,10 @@
         <v>23979.18869999981</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>28</v>
-      </c>
-      <c r="J185" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
@@ -6570,14 +6560,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>28</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6606,19 +6590,11 @@
         <v>-42672.42790000018</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>28</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6647,19 +6623,11 @@
         <v>-62523.84800000019</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>28</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6688,19 +6656,11 @@
         <v>-55489.37280000019</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J189" t="n">
-        <v>28</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6729,19 +6689,11 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J190" t="n">
-        <v>28</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6770,19 +6722,11 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J191" t="n">
-        <v>28</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6811,19 +6755,11 @@
         <v>-67178.14880000018</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J192" t="n">
-        <v>28</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6852,25 +6788,17 @@
         <v>-71680.87830000019</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J193" t="n">
-        <v>28</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
       <c r="M193" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -451,7 +451,7 @@
         <v>735376.3461</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>735376.3461</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>473260.5886</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>518260.5886</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>460978.7671999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>460978.7671999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>258732.7996999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>216014.7378999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2200,14 +2200,10 @@
         <v>216204.3882999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2237,19 +2233,11 @@
         <v>228204.3882999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -5089,10 +5071,14 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5122,11 +5108,19 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5155,15 +5149,17 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>27.2</v>
       </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +5191,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5831,10 +5815,14 @@
         <v>60100.6177999998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J164" t="n">
+        <v>27.8</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5867,8 +5855,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +5894,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5930,10 +5930,14 @@
         <v>58243.4918999998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J167" t="n">
+        <v>27.8</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5963,11 +5967,19 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5999,8 +6011,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6029,11 +6047,19 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J170" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6062,11 +6088,19 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J171" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6095,11 +6129,19 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J172" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6131,8 +6173,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6161,11 +6209,19 @@
         <v>59141.27009999981</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J174" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6194,11 +6250,19 @@
         <v>59141.27009999981</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6291,19 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J176" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6260,11 +6332,19 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +6373,19 @@
         <v>19785.95529999981</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6326,11 +6414,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +6455,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J180" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6392,11 +6496,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J181" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6537,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J182" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6458,11 +6578,19 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6491,11 +6619,19 @@
         <v>23979.18869999981</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6527,8 +6663,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6560,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6590,11 +6738,19 @@
         <v>-42672.42790000018</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J187" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6623,11 +6779,19 @@
         <v>-62523.84800000019</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J188" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6656,11 +6820,19 @@
         <v>-55489.37280000019</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6861,19 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J190" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6902,19 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J191" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6943,19 @@
         <v>-67178.14880000018</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6984,19 @@
         <v>-71680.87830000019</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J193" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-22 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-22 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>500</v>
       </c>
       <c r="G2" t="n">
-        <v>735376.3461</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>50828.1788</v>
       </c>
       <c r="G3" t="n">
-        <v>735376.3461</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>262115.7575</v>
       </c>
       <c r="G4" t="n">
-        <v>473260.5886</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>45000</v>
       </c>
       <c r="G5" t="n">
-        <v>518260.5886</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>57281.8214</v>
       </c>
       <c r="G6" t="n">
-        <v>460978.7671999999</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>130577.9763</v>
       </c>
       <c r="G7" t="n">
-        <v>460978.7671999999</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>146481.5183</v>
       </c>
       <c r="G8" t="n">
-        <v>314497.2488999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>16598.9627</v>
       </c>
       <c r="G9" t="n">
-        <v>331096.2115999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>23699.7455</v>
       </c>
       <c r="G10" t="n">
-        <v>307396.4660999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>500</v>
       </c>
       <c r="G11" t="n">
-        <v>306896.4660999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9861.1191</v>
       </c>
       <c r="G12" t="n">
-        <v>306896.4660999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>27680</v>
       </c>
       <c r="G13" t="n">
-        <v>306896.4660999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>31335.6871</v>
       </c>
       <c r="G14" t="n">
-        <v>306896.4660999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>80594.03449999999</v>
       </c>
       <c r="G15" t="n">
-        <v>306896.4660999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1815.7512</v>
       </c>
       <c r="G16" t="n">
-        <v>306896.4660999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>71961.9477</v>
       </c>
       <c r="G17" t="n">
-        <v>234934.5183999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>234934.5183999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>23798.2813</v>
       </c>
       <c r="G19" t="n">
-        <v>258732.7996999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1001</v>
       </c>
       <c r="G20" t="n">
-        <v>259733.7996999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>37792.353</v>
       </c>
       <c r="G21" t="n">
-        <v>259733.7996999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>43719.0618</v>
       </c>
       <c r="G22" t="n">
-        <v>216014.7378999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>48945.7825</v>
       </c>
       <c r="G23" t="n">
-        <v>167068.9553999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>945.1137</v>
       </c>
       <c r="G24" t="n">
-        <v>166123.8416999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>23433.9552</v>
       </c>
       <c r="G25" t="n">
-        <v>189557.7968999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>189568.7968999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7010</v>
       </c>
       <c r="G27" t="n">
-        <v>189568.7968999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7185.6744</v>
       </c>
       <c r="G28" t="n">
-        <v>196754.4712999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>19183.6692</v>
       </c>
       <c r="G29" t="n">
-        <v>215938.1404999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2258.0684</v>
       </c>
       <c r="G30" t="n">
-        <v>218196.2088999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3969</v>
       </c>
       <c r="G31" t="n">
-        <v>218196.2088999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2973.7222</v>
       </c>
       <c r="G32" t="n">
-        <v>218196.2088999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>22403.0322</v>
       </c>
       <c r="G33" t="n">
-        <v>218196.2088999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2468.1387</v>
       </c>
       <c r="G34" t="n">
-        <v>218196.2088999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>683.147</v>
       </c>
       <c r="G35" t="n">
-        <v>218879.3558999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>26046.7509</v>
       </c>
       <c r="G36" t="n">
-        <v>218879.3558999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>218889.3558999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1725.1876</v>
       </c>
       <c r="G38" t="n">
-        <v>217164.1682999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>757.0933</v>
       </c>
       <c r="G39" t="n">
-        <v>216407.0749999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>927.3455</v>
       </c>
       <c r="G40" t="n">
-        <v>217334.4204999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3385.9112</v>
       </c>
       <c r="G41" t="n">
-        <v>213948.5092999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>7080.291</v>
       </c>
       <c r="G42" t="n">
-        <v>213948.5092999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>213848.5092999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>213848.5092999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>213848.5092999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>6059.6223</v>
       </c>
       <c r="G46" t="n">
-        <v>207788.8869999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,19 @@
         <v>2280.904</v>
       </c>
       <c r="G47" t="n">
-        <v>210069.7909999999</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1827,23 @@
         <v>594</v>
       </c>
       <c r="G48" t="n">
-        <v>209475.7909999999</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1865,23 @@
         <v>12906.5691</v>
       </c>
       <c r="G49" t="n">
-        <v>222382.3600999999</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>27</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1903,23 @@
         <v>5432.1454</v>
       </c>
       <c r="G50" t="n">
-        <v>216950.2146999999</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1941,21 @@
         <v>23700</v>
       </c>
       <c r="G51" t="n">
-        <v>193250.2146999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>27</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1977,23 @@
         <v>8497.079100000001</v>
       </c>
       <c r="G52" t="n">
-        <v>201747.2937999999</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2015,23 @@
         <v>9237</v>
       </c>
       <c r="G53" t="n">
-        <v>201747.2937999999</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2053,23 @@
         <v>12334</v>
       </c>
       <c r="G54" t="n">
-        <v>214081.2937999999</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2091,23 @@
         <v>2123.0945</v>
       </c>
       <c r="G55" t="n">
-        <v>216204.3882999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2129,23 @@
         <v>12000</v>
       </c>
       <c r="G56" t="n">
-        <v>228204.3882999999</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>27</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2167,23 @@
         <v>503.7718</v>
       </c>
       <c r="G57" t="n">
-        <v>228204.3882999999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2205,23 @@
         <v>4482.7636</v>
       </c>
       <c r="G58" t="n">
-        <v>232687.1518999999</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2243,23 @@
         <v>11.0108</v>
       </c>
       <c r="G59" t="n">
-        <v>232698.1626999999</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>27.5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2281,21 @@
         <v>3603.2338</v>
       </c>
       <c r="G60" t="n">
-        <v>236301.3964999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2317,23 @@
         <v>22484.7841</v>
       </c>
       <c r="G61" t="n">
-        <v>236301.3964999999</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>27.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2355,21 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>236291.3964999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>27</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2391,23 @@
         <v>20213.6522</v>
       </c>
       <c r="G63" t="n">
-        <v>236291.3964999999</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2429,23 @@
         <v>132</v>
       </c>
       <c r="G64" t="n">
-        <v>236423.3964999999</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2467,21 @@
         <v>19897.2566</v>
       </c>
       <c r="G65" t="n">
-        <v>216526.1398999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2503,21 @@
         <v>162525.2828</v>
       </c>
       <c r="G66" t="n">
-        <v>379051.4226999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2539,21 @@
         <v>121618.2011</v>
       </c>
       <c r="G67" t="n">
-        <v>500669.6237999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2575,21 @@
         <v>49973.8583</v>
       </c>
       <c r="G68" t="n">
-        <v>450695.7654999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2611,21 @@
         <v>55721.1965</v>
       </c>
       <c r="G69" t="n">
-        <v>506416.9619999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>27</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2647,21 @@
         <v>310.187</v>
       </c>
       <c r="G70" t="n">
-        <v>506106.7749999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2683,21 @@
         <v>3882.4029</v>
       </c>
       <c r="G71" t="n">
-        <v>506106.7749999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2719,21 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>506116.7749999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>27</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2755,21 @@
         <v>7341.6326</v>
       </c>
       <c r="G73" t="n">
-        <v>498775.1423999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2791,21 @@
         <v>16252.8676</v>
       </c>
       <c r="G74" t="n">
-        <v>515028.0099999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2827,21 @@
         <v>7391.4207</v>
       </c>
       <c r="G75" t="n">
-        <v>515028.0099999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>27</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2863,21 @@
         <v>29888.0571</v>
       </c>
       <c r="G76" t="n">
-        <v>515028.0099999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>27</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2899,21 @@
         <v>727.5217</v>
       </c>
       <c r="G77" t="n">
-        <v>515755.5316999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>27</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2935,21 @@
         <v>2010</v>
       </c>
       <c r="G78" t="n">
-        <v>517765.5316999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2971,21 @@
         <v>26630.3571</v>
       </c>
       <c r="G79" t="n">
-        <v>491135.1745999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>27</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3007,21 @@
         <v>463.1661</v>
       </c>
       <c r="G80" t="n">
-        <v>490672.0084999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>27</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3043,21 @@
         <v>25314.7857</v>
       </c>
       <c r="G81" t="n">
-        <v>465357.2227999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>27</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3079,21 @@
         <v>946.6679</v>
       </c>
       <c r="G82" t="n">
-        <v>466303.8906999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3115,21 @@
         <v>2306.8307</v>
       </c>
       <c r="G83" t="n">
-        <v>466303.8906999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>27</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3151,21 @@
         <v>22929.802</v>
       </c>
       <c r="G84" t="n">
-        <v>443374.0886999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>27</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3187,21 @@
         <v>17054.1588</v>
       </c>
       <c r="G85" t="n">
-        <v>443374.0886999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3223,21 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>443385.0886999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>27</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3259,21 @@
         <v>7517.0343</v>
       </c>
       <c r="G87" t="n">
-        <v>443385.0886999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>27</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3295,21 @@
         <v>36491.2479</v>
       </c>
       <c r="G88" t="n">
-        <v>406893.8407999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3331,21 @@
         <v>1001.3174</v>
       </c>
       <c r="G89" t="n">
-        <v>407895.1581999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3367,21 @@
         <v>9400</v>
       </c>
       <c r="G90" t="n">
-        <v>398495.1581999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>27</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3403,21 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>398505.1581999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>27</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3439,21 @@
         <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>408505.1581999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>27</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3475,21 @@
         <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>408505.1581999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3511,21 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>408495.1581999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>27</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3547,21 @@
         <v>979.8411</v>
       </c>
       <c r="G95" t="n">
-        <v>407515.3170999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>27</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3583,21 @@
         <v>684.7645</v>
       </c>
       <c r="G96" t="n">
-        <v>407515.3170999998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>27</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3619,21 @@
         <v>14755.1254</v>
       </c>
       <c r="G97" t="n">
-        <v>422270.4424999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3655,21 @@
         <v>39077.8479</v>
       </c>
       <c r="G98" t="n">
-        <v>383192.5945999998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3691,21 @@
         <v>4425.9079</v>
       </c>
       <c r="G99" t="n">
-        <v>383192.5945999998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>27</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3727,21 @@
         <v>1802.8835</v>
       </c>
       <c r="G100" t="n">
-        <v>381389.7110999998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3763,21 @@
         <v>11629.7375</v>
       </c>
       <c r="G101" t="n">
-        <v>369759.9735999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>27</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3799,21 @@
         <v>9361.179400000001</v>
       </c>
       <c r="G102" t="n">
-        <v>369759.9735999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>27</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3835,21 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>369859.9735999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>27</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3871,21 @@
         <v>35435.8488</v>
       </c>
       <c r="G104" t="n">
-        <v>369859.9735999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>27</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3907,21 @@
         <v>1187.9962</v>
       </c>
       <c r="G105" t="n">
-        <v>368671.9773999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>27</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3943,21 @@
         <v>2097.3199</v>
       </c>
       <c r="G106" t="n">
-        <v>370769.2972999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>27</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3979,21 @@
         <v>1740.831</v>
       </c>
       <c r="G107" t="n">
-        <v>369028.4662999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>27</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4015,21 @@
         <v>22484.7841</v>
       </c>
       <c r="G108" t="n">
-        <v>346543.6821999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>27</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4051,21 @@
         <v>66.033</v>
       </c>
       <c r="G109" t="n">
-        <v>346543.6821999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>27</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4087,21 @@
         <v>1683.7484</v>
       </c>
       <c r="G110" t="n">
-        <v>346543.6821999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>27</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4123,21 @@
         <v>9206.306</v>
       </c>
       <c r="G111" t="n">
-        <v>337337.3761999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>27</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4159,21 @@
         <v>12225.1675</v>
       </c>
       <c r="G112" t="n">
-        <v>337337.3761999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>27</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4195,21 @@
         <v>14670.6901</v>
       </c>
       <c r="G113" t="n">
-        <v>337337.3761999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>27</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4231,21 @@
         <v>6168.6429</v>
       </c>
       <c r="G114" t="n">
-        <v>343506.0190999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>27</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4267,21 @@
         <v>30600</v>
       </c>
       <c r="G115" t="n">
-        <v>343506.0190999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>27</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4303,21 @@
         <v>800</v>
       </c>
       <c r="G116" t="n">
-        <v>343506.0190999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>27</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4339,21 @@
         <v>71033.0223</v>
       </c>
       <c r="G117" t="n">
-        <v>272472.9967999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>27</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4375,21 @@
         <v>13820.9662</v>
       </c>
       <c r="G118" t="n">
-        <v>272472.9967999998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>27</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4411,21 @@
         <v>15049.7482</v>
       </c>
       <c r="G119" t="n">
-        <v>287522.7449999998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>27</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4447,21 @@
         <v>821.5399</v>
       </c>
       <c r="G120" t="n">
-        <v>287522.7449999998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>27</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4483,21 @@
         <v>1627.3504</v>
       </c>
       <c r="G121" t="n">
-        <v>289150.0953999998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>27</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4519,21 @@
         <v>789.3821</v>
       </c>
       <c r="G122" t="n">
-        <v>288360.7132999998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>27</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4555,21 @@
         <v>1576.1714</v>
       </c>
       <c r="G123" t="n">
-        <v>289936.8846999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>27</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4591,21 @@
         <v>5016.0507</v>
       </c>
       <c r="G124" t="n">
-        <v>284920.8339999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>27</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4627,21 @@
         <v>25424.2593</v>
       </c>
       <c r="G125" t="n">
-        <v>284920.8339999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>27</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4663,21 @@
         <v>3423.9749</v>
       </c>
       <c r="G126" t="n">
-        <v>284920.8339999998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>27</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4699,21 @@
         <v>118000.6959</v>
       </c>
       <c r="G127" t="n">
-        <v>166920.1380999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>27</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4735,21 @@
         <v>2564.1025</v>
       </c>
       <c r="G128" t="n">
-        <v>169484.2405999998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>27</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4771,21 @@
         <v>2554.7445</v>
       </c>
       <c r="G129" t="n">
-        <v>166929.4960999998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>27</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4807,21 @@
         <v>2554.7445</v>
       </c>
       <c r="G130" t="n">
-        <v>166929.4960999998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>27</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4843,21 @@
         <v>2383.7226</v>
       </c>
       <c r="G131" t="n">
-        <v>166929.4960999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>27</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4879,21 @@
         <v>6161.0466</v>
       </c>
       <c r="G132" t="n">
-        <v>166929.4960999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>27</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4915,21 @@
         <v>4744.9627</v>
       </c>
       <c r="G133" t="n">
-        <v>166929.4960999998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>27</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4951,21 @@
         <v>11</v>
       </c>
       <c r="G134" t="n">
-        <v>166940.4960999998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>27</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4987,21 @@
         <v>30469.8922</v>
       </c>
       <c r="G135" t="n">
-        <v>136470.6038999998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>27</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5023,21 @@
         <v>778.2788</v>
       </c>
       <c r="G136" t="n">
-        <v>136470.6038999998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>27</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5059,21 @@
         <v>2564.1025</v>
       </c>
       <c r="G137" t="n">
-        <v>133906.5013999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>27</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5095,21 @@
         <v>7692.3075</v>
       </c>
       <c r="G138" t="n">
-        <v>133906.5013999998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>27</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5131,21 @@
         <v>13130.8195</v>
       </c>
       <c r="G139" t="n">
-        <v>133906.5013999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>27</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5167,23 @@
         <v>63296.2529</v>
       </c>
       <c r="G140" t="n">
-        <v>70610.24849999981</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>27</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5205,23 @@
         <v>18886.2885</v>
       </c>
       <c r="G141" t="n">
-        <v>89496.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>27</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,22 +5243,23 @@
         <v>7720.5882</v>
       </c>
       <c r="G142" t="n">
-        <v>89496.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>27.2</v>
       </c>
       <c r="I142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5105,26 +5281,23 @@
         <v>122612.6149</v>
       </c>
       <c r="G143" t="n">
-        <v>89496.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>27.2</v>
       </c>
       <c r="I143" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5146,24 +5319,23 @@
         <v>1720</v>
       </c>
       <c r="G144" t="n">
-        <v>91216.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
         <v>27.2</v>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>27</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5185,18 +5357,23 @@
         <v>66</v>
       </c>
       <c r="G145" t="n">
-        <v>91216.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>27</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5218,18 +5395,23 @@
         <v>171.1812</v>
       </c>
       <c r="G146" t="n">
-        <v>91216.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I146" t="n">
+        <v>27</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5251,18 +5433,23 @@
         <v>11</v>
       </c>
       <c r="G147" t="n">
-        <v>91227.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>27</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5284,18 +5471,23 @@
         <v>1326.6757</v>
       </c>
       <c r="G148" t="n">
-        <v>91227.53699999981</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>27.6</v>
+      </c>
+      <c r="I148" t="n">
+        <v>27</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5317,18 +5509,23 @@
         <v>27131.8005</v>
       </c>
       <c r="G149" t="n">
-        <v>64095.73649999981</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>27.6</v>
+      </c>
+      <c r="I149" t="n">
+        <v>27</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5350,18 +5547,23 @@
         <v>33100</v>
       </c>
       <c r="G150" t="n">
-        <v>97195.73649999981</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>27.5</v>
+      </c>
+      <c r="I150" t="n">
+        <v>27</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5383,18 +5585,23 @@
         <v>2153.5378</v>
       </c>
       <c r="G151" t="n">
-        <v>95042.1986999998</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>27.7</v>
+      </c>
+      <c r="I151" t="n">
+        <v>27</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5416,18 +5623,21 @@
         <v>12200</v>
       </c>
       <c r="G152" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>27</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5449,18 +5659,21 @@
         <v>15700</v>
       </c>
       <c r="G153" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>27</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5482,18 +5695,21 @@
         <v>5494.0511</v>
       </c>
       <c r="G154" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>27</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5515,18 +5731,21 @@
         <v>4206.4563</v>
       </c>
       <c r="G155" t="n">
-        <v>107242.1986999998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>27</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5548,18 +5767,21 @@
         <v>64000</v>
       </c>
       <c r="G156" t="n">
-        <v>43242.1986999998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>27</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5581,18 +5803,21 @@
         <v>600</v>
       </c>
       <c r="G157" t="n">
-        <v>43242.1986999998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>27</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5614,18 +5839,21 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>43252.1986999998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>27</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5647,18 +5875,21 @@
         <v>14440.5425</v>
       </c>
       <c r="G159" t="n">
-        <v>57692.7411999998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>27</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5680,18 +5911,21 @@
         <v>590</v>
       </c>
       <c r="G160" t="n">
-        <v>57692.7411999998</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>27</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5713,18 +5947,21 @@
         <v>5309.8926</v>
       </c>
       <c r="G161" t="n">
-        <v>63002.6337999998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>27</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5746,18 +5983,21 @@
         <v>1357.8964</v>
       </c>
       <c r="G162" t="n">
-        <v>63002.6337999998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>27</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5779,18 +6019,21 @@
         <v>5410.016</v>
       </c>
       <c r="G163" t="n">
-        <v>57592.6177999998</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>27</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5812,22 +6055,21 @@
         <v>2508</v>
       </c>
       <c r="G164" t="n">
-        <v>60100.6177999998</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J164" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5849,24 +6091,21 @@
         <v>1857.1259</v>
       </c>
       <c r="G165" t="n">
-        <v>58243.4918999998</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>27</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5888,24 +6127,21 @@
         <v>881.6236</v>
       </c>
       <c r="G166" t="n">
-        <v>58243.4918999998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>27</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5927,22 +6163,21 @@
         <v>1336.3907</v>
       </c>
       <c r="G167" t="n">
-        <v>58243.4918999998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J167" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5964,26 +6199,21 @@
         <v>36998.8612</v>
       </c>
       <c r="G168" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6005,24 +6235,21 @@
         <v>5101.5588</v>
       </c>
       <c r="G169" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>27</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6044,26 +6271,21 @@
         <v>6055.7674</v>
       </c>
       <c r="G170" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J170" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6085,26 +6307,21 @@
         <v>6234.0715</v>
       </c>
       <c r="G171" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J171" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6126,26 +6343,21 @@
         <v>30436.9955</v>
       </c>
       <c r="G172" t="n">
-        <v>95242.3530999998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J172" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6167,24 +6379,21 @@
         <v>36101.083</v>
       </c>
       <c r="G173" t="n">
-        <v>59141.27009999981</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>27</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6206,26 +6415,21 @@
         <v>2479.9083</v>
       </c>
       <c r="G174" t="n">
-        <v>59141.27009999981</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6247,26 +6451,21 @@
         <v>51011.7929</v>
       </c>
       <c r="G175" t="n">
-        <v>59141.27009999981</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J175" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6288,26 +6487,21 @@
         <v>39495.8578</v>
       </c>
       <c r="G176" t="n">
-        <v>19645.41229999981</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J176" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6329,26 +6523,21 @@
         <v>76331.2182</v>
       </c>
       <c r="G177" t="n">
-        <v>19645.41229999981</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J177" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6370,26 +6559,21 @@
         <v>140.543</v>
       </c>
       <c r="G178" t="n">
-        <v>19785.95529999981</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6411,26 +6595,21 @@
         <v>1612.7442</v>
       </c>
       <c r="G179" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6452,26 +6631,21 @@
         <v>4366.7447</v>
       </c>
       <c r="G180" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J180" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6493,26 +6667,21 @@
         <v>42397.2661</v>
       </c>
       <c r="G181" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J181" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6534,26 +6703,21 @@
         <v>28500</v>
       </c>
       <c r="G182" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J182" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6575,26 +6739,21 @@
         <v>14102.4618</v>
       </c>
       <c r="G183" t="n">
-        <v>21398.69949999981</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J183" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6616,26 +6775,21 @@
         <v>2580.4892</v>
       </c>
       <c r="G184" t="n">
-        <v>23979.18869999981</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J184" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6657,24 +6811,21 @@
         <v>68124.35709999999</v>
       </c>
       <c r="G185" t="n">
-        <v>23979.18869999981</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>27</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6696,24 +6847,21 @@
         <v>66651.61659999999</v>
       </c>
       <c r="G186" t="n">
-        <v>-42672.42790000018</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>27</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6735,26 +6883,21 @@
         <v>300</v>
       </c>
       <c r="G187" t="n">
-        <v>-42672.42790000018</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6776,26 +6919,21 @@
         <v>19851.4201</v>
       </c>
       <c r="G188" t="n">
-        <v>-62523.84800000019</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6817,26 +6955,21 @@
         <v>7034.4752</v>
       </c>
       <c r="G189" t="n">
-        <v>-55489.37280000019</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J189" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6858,26 +6991,21 @@
         <v>28201.7376</v>
       </c>
       <c r="G190" t="n">
-        <v>-83691.11040000018</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J190" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6899,26 +7027,21 @@
         <v>8800</v>
       </c>
       <c r="G191" t="n">
-        <v>-83691.11040000018</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J191" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6940,26 +7063,21 @@
         <v>16512.9616</v>
       </c>
       <c r="G192" t="n">
-        <v>-67178.14880000018</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J192" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6981,26 +7099,21 @@
         <v>4502.7295</v>
       </c>
       <c r="G193" t="n">
-        <v>-71680.87830000019</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J193" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
